--- a/sriramModel-nelson-atypical-patientID_21-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_21-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.023959633711994</v>
+        <v>2.010601623321317</v>
       </c>
       <c r="C2">
-        <v>2.029619456472293</v>
+        <v>2.004173815417193</v>
       </c>
       <c r="D2">
-        <v>2.014807328413721</v>
+        <v>2.018908250934994</v>
       </c>
       <c r="E2">
-        <v>2.043410674975507</v>
+        <v>2.012547645310562</v>
       </c>
       <c r="F2">
-        <v>2.022186112593034</v>
+        <v>2.004208534278574</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.047827528070419</v>
+        <v>2.021232071553901</v>
       </c>
       <c r="C3">
-        <v>2.059131802918579</v>
+        <v>2.008413791104736</v>
       </c>
       <c r="D3">
-        <v>2.029624113193334</v>
+        <v>2.037821373494147</v>
       </c>
       <c r="E3">
-        <v>2.086699449920214</v>
+        <v>2.025095001386144</v>
       </c>
       <c r="F3">
-        <v>2.044347451074974</v>
+        <v>2.008421614118309</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.071602113366294</v>
+        <v>2.031890146411295</v>
       </c>
       <c r="C4">
-        <v>2.088532983045529</v>
+        <v>2.012721925150318</v>
       </c>
       <c r="D4">
-        <v>2.044452126568732</v>
+        <v>2.056735795271454</v>
       </c>
       <c r="E4">
-        <v>2.129877845029216</v>
+        <v>2.037639934117016</v>
       </c>
       <c r="F4">
-        <v>2.066478269727488</v>
+        <v>2.012638975323304</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.095281970113093</v>
+        <v>2.042574921417622</v>
       </c>
       <c r="C5">
-        <v>2.117819412581951</v>
+        <v>2.017100314966965</v>
       </c>
       <c r="D5">
-        <v>2.059293045177256</v>
+        <v>2.075648330107107</v>
       </c>
       <c r="E5">
-        <v>2.172955447379798</v>
+        <v>2.050180635418158</v>
       </c>
       <c r="F5">
-        <v>2.088573337649574</v>
+        <v>2.016860413746671</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.118865853268362</v>
+        <v>2.053285727808391</v>
       </c>
       <c r="C6">
-        <v>2.146987950900282</v>
+        <v>2.021551166522208</v>
       </c>
       <c r="D6">
-        <v>2.074148437785726</v>
+        <v>2.094556147220056</v>
       </c>
       <c r="E6">
-        <v>2.215940183795566</v>
+        <v>2.062715595098275</v>
       </c>
       <c r="F6">
-        <v>2.110627902496317</v>
+        <v>2.0210857799183</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.142352679623755</v>
+        <v>2.064022144010278</v>
       </c>
       <c r="C7">
-        <v>2.176035847819066</v>
+        <v>2.026076803782547</v>
       </c>
       <c r="D7">
-        <v>2.089019778164868</v>
+        <v>2.113456765363384</v>
       </c>
       <c r="E7">
-        <v>2.258838373465744</v>
+        <v>2.07524359687433</v>
       </c>
       <c r="F7">
-        <v>2.132637670355206</v>
+        <v>2.025314975242481</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.165741535682896</v>
+        <v>2.074784012230237</v>
       </c>
       <c r="C8">
-        <v>2.204960774863316</v>
+        <v>2.030679672283406</v>
       </c>
       <c r="D8">
-        <v>2.103908459803746</v>
+        <v>2.132348066078838</v>
       </c>
       <c r="E8">
-        <v>2.30165484574629</v>
+        <v>2.087763726503459</v>
       </c>
       <c r="F8">
-        <v>2.154598784406901</v>
+        <v>2.029547949639518</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.18903167485159</v>
+        <v>2.085571422440953</v>
       </c>
       <c r="C9">
-        <v>2.233760817576027</v>
+        <v>2.035362346088416</v>
       </c>
       <c r="D9">
-        <v>2.118815799511029</v>
+        <v>2.151228269510308</v>
       </c>
       <c r="E9">
-        <v>2.344393059460872</v>
+        <v>2.100275349262906</v>
       </c>
       <c r="F9">
-        <v>2.176507808910737</v>
+        <v>2.03378469733725</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.212222513681914</v>
+        <v>2.096384705523439</v>
       </c>
       <c r="C10">
-        <v>2.262434449169576</v>
+        <v>2.040127535003931</v>
       </c>
       <c r="D10">
-        <v>2.133743043171163</v>
+        <v>2.170095930134152</v>
       </c>
       <c r="E10">
-        <v>2.387055206046359</v>
+        <v>2.112778104250761</v>
       </c>
       <c r="F10">
-        <v>2.198361712115727</v>
+        <v>2.038025253163029</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.235313636545643</v>
+        <v>2.107224433645692</v>
       </c>
       <c r="C11">
-        <v>2.290980520697103</v>
+        <v>2.044978092507377</v>
       </c>
       <c r="D11">
-        <v>2.148691373767218</v>
+        <v>2.188949935778714</v>
       </c>
       <c r="E11">
-        <v>2.429642310959053</v>
+        <v>2.125271901920364</v>
       </c>
       <c r="F11">
-        <v>2.220157856459267</v>
+        <v>2.042269689525351</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.258304811248577</v>
+        <v>2.118091419217815</v>
       </c>
       <c r="C12">
-        <v>2.319398259127811</v>
+        <v>2.049917024870993</v>
       </c>
       <c r="D12">
-        <v>2.163661920002092</v>
+        <v>2.207789504657493</v>
       </c>
       <c r="E12">
-        <v>2.472154334284981</v>
+        <v>2.13775692010295</v>
       </c>
       <c r="F12">
-        <v>2.241893980765777</v>
+        <v>2.046518113883159</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.281195991302138</v>
+        <v>2.128986713442363</v>
       </c>
       <c r="C13">
-        <v>2.347687264765253</v>
+        <v>2.054947500545548</v>
       </c>
       <c r="D13">
-        <v>2.178655764956573</v>
+        <v>2.226614182129211</v>
       </c>
       <c r="E13">
-        <v>2.514590271562264</v>
+        <v>2.150233599087659</v>
       </c>
       <c r="F13">
-        <v>2.263568183362191</v>
+        <v>2.050770665884705</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.303987314284087</v>
+        <v>2.139911605416131</v>
       </c>
       <c r="C14">
-        <v>2.375847507444534</v>
+        <v>2.060072859787905</v>
       </c>
       <c r="D14">
-        <v>2.193673955059154</v>
+        <v>2.24542383861093</v>
       </c>
       <c r="E14">
-        <v>2.556948249551239</v>
+        <v>2.162702637925188</v>
       </c>
       <c r="F14">
-        <v>2.285178910930875</v>
+        <v>2.055027514711686</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.326679105602583</v>
+        <v>2.150867621679912</v>
       </c>
       <c r="C15">
-        <v>2.403879321508037</v>
+        <v>2.065296626113552</v>
       </c>
       <c r="D15">
-        <v>2.208717513026123</v>
+        <v>2.264218668602953</v>
       </c>
       <c r="E15">
-        <v>2.599225622467435</v>
+        <v>2.175164991633602</v>
       </c>
       <c r="F15">
-        <v>2.306724949923253</v>
+        <v>2.059288856521468</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.34927188542928</v>
+        <v>2.161856526923414</v>
       </c>
       <c r="C16">
-        <v>2.43178340414423</v>
+        <v>2.070622517651343</v>
       </c>
       <c r="D16">
-        <v>2.22378743891589</v>
+        <v>2.282999190736266</v>
       </c>
       <c r="E16">
-        <v>2.641419068872886</v>
+        <v>2.187621869324386</v>
       </c>
       <c r="F16">
-        <v>2.328205415126037</v>
+        <v>2.063554912094239</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.371766376267403</v>
+        <v>2.172880325426807</v>
       </c>
       <c r="C17">
-        <v>2.459560814574465</v>
+        <v>2.076054456775805</v>
       </c>
       <c r="D17">
-        <v>2.238884733421791</v>
+        <v>2.30176624886463</v>
       </c>
       <c r="E17">
-        <v>2.683524681307174</v>
+        <v>2.20007473318868</v>
       </c>
       <c r="F17">
-        <v>2.349619740180072</v>
+        <v>2.067825924624306</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.394163512760568</v>
+        <v>2.183941263392547</v>
       </c>
       <c r="C18">
-        <v>2.4872129744225</v>
+        <v>2.081596588054907</v>
       </c>
       <c r="D18">
-        <v>2.254010390957516</v>
+        <v>2.320521014529095</v>
       </c>
       <c r="E18">
-        <v>2.725538059827245</v>
+        <v>2.212525298166259</v>
       </c>
       <c r="F18">
-        <v>2.370967667323896</v>
+        <v>2.072102157472201</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.416464453330173</v>
+        <v>2.195041832797122</v>
       </c>
       <c r="C19">
-        <v>2.514741668637939</v>
+        <v>2.087253294234753</v>
       </c>
       <c r="D19">
-        <v>2.269165430850565</v>
+        <v>2.339264989170774</v>
       </c>
       <c r="E19">
-        <v>2.767454402138983</v>
+        <v>2.224975532149018</v>
       </c>
       <c r="F19">
-        <v>2.392249240453999</v>
+        <v>2.076383892290228</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.43867056044696</v>
+        <v>2.206184771955261</v>
       </c>
       <c r="C20">
-        <v>2.542149048413677</v>
+        <v>2.093029210921421</v>
       </c>
       <c r="D20">
-        <v>2.28435090409338</v>
+        <v>2.358000006559713</v>
       </c>
       <c r="E20">
-        <v>2.809268591006811</v>
+        <v>2.237427658138689</v>
       </c>
       <c r="F20">
-        <v>2.413464797691453</v>
+        <v>2.080671427117862</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.460783453372144</v>
+        <v>2.21737307383246</v>
       </c>
       <c r="C21">
-        <v>2.569437634683301</v>
+        <v>2.098929244704065</v>
       </c>
       <c r="D21">
-        <v>2.299567903391378</v>
+        <v>2.376728242441955</v>
       </c>
       <c r="E21">
-        <v>2.850975279907055</v>
+        <v>2.249884154407573</v>
       </c>
       <c r="F21">
-        <v>2.434614965982357</v>
+        <v>2.084965074543042</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.482804967309737</v>
+        <v>2.22860998873535</v>
       </c>
       <c r="C22">
-        <v>2.59661032303389</v>
+        <v>2.10495859164056</v>
       </c>
       <c r="D22">
-        <v>2.314817586393708</v>
+        <v>2.395452214209824</v>
       </c>
       <c r="E22">
-        <v>2.892568972350356</v>
+        <v>2.262347760288771</v>
       </c>
       <c r="F22">
-        <v>2.455700656809739</v>
+        <v>2.0892651599492</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.504737217932951</v>
+        <v>2.239899031518518</v>
       </c>
       <c r="C23">
-        <v>2.623670392557045</v>
+        <v>2.111122758435228</v>
       </c>
       <c r="D23">
-        <v>2.330101184835586</v>
+        <v>2.414174796496249</v>
       </c>
       <c r="E23">
-        <v>2.934044096546426</v>
+        <v>2.274821477903346</v>
       </c>
       <c r="F23">
-        <v>2.476723062268674</v>
+        <v>2.093572019408449</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.526582577694275</v>
+        <v>2.251243994657575</v>
       </c>
       <c r="C24">
-        <v>2.65062150229585</v>
+        <v>2.117427586911741</v>
       </c>
       <c r="D24">
-        <v>2.345420021925281</v>
+        <v>2.43289922649041</v>
       </c>
       <c r="E24">
-        <v>2.975395073119382</v>
+        <v>2.287308578830762</v>
       </c>
       <c r="F24">
-        <v>2.497683652115505</v>
+        <v>2.097885998636837</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.548343705908742</v>
+        <v>2.262648948121874</v>
       </c>
       <c r="C25">
-        <v>2.677467721034249</v>
+        <v>2.123879281713226</v>
       </c>
       <c r="D25">
-        <v>2.360775533049704</v>
+        <v>2.45162911386807</v>
       </c>
       <c r="E25">
-        <v>3.016616374539184</v>
+        <v>2.299812613097387</v>
       </c>
       <c r="F25">
-        <v>2.518584172915127</v>
+        <v>2.102207451402188</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.570023551184952</v>
+        <v>2.274118260739384</v>
       </c>
       <c r="C26">
-        <v>2.704213499739084</v>
+        <v>2.130484428292521</v>
       </c>
       <c r="D26">
-        <v>2.376169279675307</v>
+        <v>2.470368457178739</v>
       </c>
       <c r="E26">
-        <v>3.057702575802186</v>
+        <v>2.312337410884186</v>
       </c>
       <c r="F26">
-        <v>2.539426647509229</v>
+        <v>2.106536738207796</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.591625368550377</v>
+        <v>2.28565660268506</v>
       </c>
       <c r="C27">
-        <v>2.730863732351589</v>
+        <v>2.13725004199057</v>
       </c>
       <c r="D27">
-        <v>2.391602978439073</v>
+        <v>2.489121653152357</v>
       </c>
       <c r="E27">
-        <v>3.098648395957412</v>
+        <v>2.324887100312173</v>
       </c>
       <c r="F27">
-        <v>2.560213375043409</v>
+        <v>2.110874224952428</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.613152734900273</v>
+        <v>2.297268964977785</v>
       </c>
       <c r="C28">
-        <v>2.757423716230447</v>
+        <v>2.14418356790011</v>
       </c>
       <c r="D28">
-        <v>2.407078517438024</v>
+        <v>2.50789351583107</v>
       </c>
       <c r="E28">
-        <v>3.139448730770726</v>
+        <v>2.337466110399801</v>
       </c>
       <c r="F28">
-        <v>2.580946934015329</v>
+        <v>2.115220281719073</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.634609562651533</v>
+        <v>2.308960672280358</v>
       </c>
       <c r="C29">
-        <v>2.783899218593759</v>
+        <v>2.151292963010613</v>
       </c>
       <c r="D29">
-        <v>2.422597984352217</v>
+        <v>2.526689296974388</v>
       </c>
       <c r="E29">
-        <v>3.180098677122687</v>
+        <v>2.3500791890304</v>
       </c>
       <c r="F29">
-        <v>2.601630185760379</v>
+        <v>2.11957528153697</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.656000124878182</v>
+        <v>2.320737397561533</v>
       </c>
       <c r="C30">
-        <v>2.810296449062976</v>
+        <v>2.158586680388966</v>
       </c>
       <c r="D30">
-        <v>2.438163694162936</v>
+        <v>2.545514699500572</v>
       </c>
       <c r="E30">
-        <v>3.220593550124557</v>
+        <v>2.362731416158895</v>
       </c>
       <c r="F30">
-        <v>2.622266279168106</v>
+        <v>2.123939598711137</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.677329071908264</v>
+        <v>2.332605189714163</v>
       </c>
       <c r="C31">
-        <v>2.836622112993195</v>
+        <v>2.166073776810938</v>
       </c>
       <c r="D31">
-        <v>2.453778211345193</v>
+        <v>2.564375910455634</v>
       </c>
       <c r="E31">
-        <v>3.260928894028185</v>
+        <v>2.375428215997957</v>
       </c>
       <c r="F31">
-        <v>2.642858656257919</v>
+        <v>2.128313609721805</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.698601452644458</v>
+        <v>2.344570481855208</v>
       </c>
       <c r="C32">
-        <v>2.862883403138781</v>
+        <v>2.173763894618356</v>
       </c>
       <c r="D32">
-        <v>2.469444389032319</v>
+        <v>2.583279620156135</v>
       </c>
       <c r="E32">
-        <v>3.301100488042723</v>
+        <v>2.388175385326473</v>
       </c>
       <c r="F32">
-        <v>2.663411061588784</v>
+        <v>2.132697688795914</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.719822742800384</v>
+        <v>2.356640131424028</v>
       </c>
       <c r="C33">
-        <v>2.889088045618112</v>
+        <v>2.181667381039193</v>
       </c>
       <c r="D33">
-        <v>2.48516539680111</v>
+        <v>2.602233052204234</v>
       </c>
       <c r="E33">
-        <v>3.3411043480549</v>
+        <v>2.400979102365123</v>
       </c>
       <c r="F33">
-        <v>2.683927551428304</v>
+        <v>2.13709220876695</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.740998862598878</v>
+        <v>2.368821432579343</v>
       </c>
       <c r="C34">
-        <v>2.915244301437961</v>
+        <v>2.18979528004025</v>
       </c>
       <c r="D34">
-        <v>2.500944757505281</v>
+        <v>2.621244001768336</v>
       </c>
       <c r="E34">
-        <v>3.380936725231174</v>
+        <v>2.413845962931053</v>
       </c>
       <c r="F34">
-        <v>2.704412504180768</v>
+        <v>2.141497541968237</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.762136211971839</v>
+        <v>2.381122156277034</v>
       </c>
       <c r="C35">
-        <v>2.941361018697965</v>
+        <v>2.19815946226281</v>
       </c>
       <c r="D35">
-        <v>2.516786390731799</v>
+        <v>2.640320860901556</v>
       </c>
       <c r="E35">
-        <v>3.420594102426847</v>
+        <v>2.426782999665907</v>
       </c>
       <c r="F35">
-        <v>2.724870634908169</v>
+        <v>2.145914056851559</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.783241696095428</v>
+        <v>2.393550581892959</v>
       </c>
       <c r="C36">
-        <v>2.967447635783195</v>
+        <v>2.206772625865837</v>
       </c>
       <c r="D36">
-        <v>2.532694657616184</v>
+        <v>2.659472669216023</v>
       </c>
       <c r="E36">
-        <v>3.460073188608364</v>
+        <v>2.439797713203308</v>
       </c>
       <c r="F36">
-        <v>2.745307010902432</v>
+        <v>2.150342118879743</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.804322758166577</v>
+        <v>2.406115526308017</v>
       </c>
       <c r="C37">
-        <v>2.993514245112355</v>
+        <v>2.215648448493156</v>
       </c>
       <c r="D37">
-        <v>2.548674408368736</v>
+        <v>2.678709156642996</v>
       </c>
       <c r="E37">
-        <v>3.499370911950626</v>
+        <v>2.452898116049164</v>
       </c>
       <c r="F37">
-        <v>2.765727069447352</v>
+        <v>2.154782088803743</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.825387424402651</v>
+        <v>2.418826404192267</v>
       </c>
       <c r="C38">
-        <v>3.019571599095554</v>
+        <v>2.224801590771337</v>
       </c>
       <c r="D38">
-        <v>2.564731033266163</v>
+        <v>2.698040783001676</v>
       </c>
       <c r="E38">
-        <v>3.538484412556834</v>
+        <v>2.466092752343096</v>
       </c>
       <c r="F38">
-        <v>2.786136636379466</v>
+        <v>2.159234322079824</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.846444328163015</v>
+        <v>2.431693248479397</v>
       </c>
       <c r="C39">
-        <v>3.04563118258115</v>
+        <v>2.234247881041204</v>
       </c>
       <c r="D39">
-        <v>2.58087052188662</v>
+        <v>2.717478811233629</v>
       </c>
       <c r="E39">
-        <v>3.577411034375297</v>
+        <v>2.479390765515445</v>
       </c>
       <c r="F39">
-        <v>2.806541951751342</v>
+        <v>2.163699168350461</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.86750277366368</v>
+        <v>2.444726791721164</v>
       </c>
       <c r="C40">
-        <v>3.071705227903844</v>
+        <v>2.244004320100663</v>
       </c>
       <c r="D40">
-        <v>2.597099529375182</v>
+        <v>2.73703535096275</v>
       </c>
       <c r="E40">
-        <v>3.616148316723727</v>
+        <v>2.49280192619322</v>
       </c>
       <c r="F40">
-        <v>2.826949695016037</v>
+        <v>2.168176970411927</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.888572768157365</v>
+        <v>2.457938499105458</v>
       </c>
       <c r="C41">
-        <v>3.097806792287372</v>
+        <v>2.254089303350736</v>
       </c>
       <c r="D41">
-        <v>2.613425449233711</v>
+        <v>2.756723435596408</v>
       </c>
       <c r="E41">
-        <v>3.654693985811835</v>
+        <v>2.506336698950821</v>
       </c>
       <c r="F41">
-        <v>2.847367012574608</v>
+        <v>2.172668064335562</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.909665083225738</v>
+        <v>2.471340648251616</v>
       </c>
       <c r="C42">
-        <v>3.12394978840351</v>
+        <v>2.264522631031079</v>
       </c>
       <c r="D42">
-        <v>2.629856494086457</v>
+        <v>2.776557103397356</v>
       </c>
       <c r="E42">
-        <v>3.693045946203166</v>
+        <v>2.520006312052654</v>
       </c>
       <c r="F42">
-        <v>2.867801552225846</v>
+        <v>2.177172778254832</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.930791321554291</v>
+        <v>2.48494640667097</v>
       </c>
       <c r="C43">
-        <v>3.150149064643891</v>
+        <v>2.275325769966101</v>
       </c>
       <c r="D43">
-        <v>2.64640178631263</v>
+        <v>2.796551457584317</v>
       </c>
       <c r="E43">
-        <v>3.731202272327921</v>
+        <v>2.533822798387706</v>
       </c>
       <c r="F43">
-        <v>2.888261500340358</v>
+        <v>2.181691432596386</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.951963957635042</v>
+        <v>2.498769884522912</v>
       </c>
       <c r="C44">
-        <v>3.176420457847398</v>
+        <v>2.286521874716676</v>
       </c>
       <c r="D44">
-        <v>2.663071457377637</v>
+        <v>2.816722787165805</v>
       </c>
       <c r="E44">
-        <v>3.769161200123078</v>
+        <v>2.547799119819417</v>
       </c>
       <c r="F44">
-        <v>2.908755623392506</v>
+        <v>2.186224339072345</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.973196446113892</v>
+        <v>2.512826275489001</v>
       </c>
       <c r="C45">
-        <v>3.202780873492706</v>
+        <v>2.298136092084377</v>
       </c>
       <c r="D45">
-        <v>2.67987676367835</v>
+        <v>2.837088649933904</v>
       </c>
       <c r="E45">
-        <v>3.806921118845654</v>
+        <v>2.561949209822931</v>
       </c>
       <c r="F45">
-        <v>2.929293310096798</v>
+        <v>2.19077180051074</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.994503268499423</v>
+        <v>2.527131898793808</v>
       </c>
       <c r="C46">
-        <v>3.229248370259511</v>
+        <v>2.310195597506514</v>
       </c>
       <c r="D46">
-        <v>2.696830214995644</v>
+        <v>2.857667981076689</v>
       </c>
       <c r="E46">
-        <v>3.844480563087605</v>
+        <v>2.576288113506396</v>
       </c>
       <c r="F46">
-        <v>2.949884628710568</v>
+        <v>2.195334110298278</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.015900046927637</v>
+        <v>2.541704375235977</v>
       </c>
       <c r="C47">
-        <v>3.255842233753612</v>
+        <v>2.322729944914544</v>
       </c>
       <c r="D47">
-        <v>2.713945720428603</v>
+        <v>2.878481240016528</v>
       </c>
       <c r="E47">
-        <v>3.881838204990869</v>
+        <v>2.590832087612483</v>
       </c>
       <c r="F47">
-        <v>2.970540383265424</v>
+        <v>2.199911551960773</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.037403643906043</v>
+        <v>2.55656270935213</v>
       </c>
       <c r="C48">
-        <v>3.282583107407136</v>
+        <v>2.335771095792343</v>
       </c>
       <c r="D48">
-        <v>2.731238754280573</v>
+        <v>2.899550507311825</v>
       </c>
       <c r="E48">
-        <v>3.918992846691683</v>
+        <v>2.605598711612264</v>
       </c>
       <c r="F48">
-        <v>2.991272175029496</v>
+        <v>2.204504398991629</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.059032245231618</v>
+        <v>2.571727453133716</v>
       </c>
       <c r="C49">
-        <v>3.309493048998744</v>
+        <v>2.349353847446652</v>
       </c>
       <c r="D49">
-        <v>2.748726545324895</v>
+        <v>2.920899662929695</v>
       </c>
       <c r="E49">
-        <v>3.955943412981325</v>
+        <v>2.620607093667508</v>
       </c>
       <c r="F49">
-        <v>3.012092477477497</v>
+        <v>2.209112914267946</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.080805538793105</v>
+        <v>2.587220903439072</v>
       </c>
       <c r="C50">
-        <v>3.336595728023024</v>
+        <v>2.363515968169208</v>
       </c>
       <c r="D50">
-        <v>2.766428294913319</v>
+        <v>2.942554543557365</v>
       </c>
       <c r="E50">
-        <v>3.992688944213629</v>
+        <v>2.63587795105003</v>
       </c>
       <c r="F50">
-        <v>3.033014718699792</v>
+        <v>2.213737350045188</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.102744767604562</v>
+        <v>2.603067192298589</v>
       </c>
       <c r="C51">
-        <v>3.363916449297993</v>
+        <v>2.378298481990462</v>
       </c>
       <c r="D51">
-        <v>2.784365413099044</v>
+        <v>2.964543076420362</v>
       </c>
       <c r="E51">
-        <v>4.029228589397571</v>
+        <v>2.651433897880255</v>
       </c>
       <c r="F51">
-        <v>3.054053372940852</v>
+        <v>2.218377947465549</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.124872999425297</v>
+        <v>2.619292631633281</v>
       </c>
       <c r="C52">
-        <v>3.391482376713136</v>
+        <v>2.39374592249285</v>
       </c>
       <c r="D52">
-        <v>2.802561830100366</v>
+        <v>2.986895521767294</v>
       </c>
       <c r="E52">
-        <v>4.065561599503849</v>
+        <v>2.667299590420667</v>
       </c>
       <c r="F52">
-        <v>3.075224046004508</v>
+        <v>2.223034936470442</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.147215275842584</v>
+        <v>2.63592580155295</v>
       </c>
       <c r="C53">
-        <v>3.419322828560509</v>
+        <v>2.40990660263549</v>
       </c>
       <c r="D53">
-        <v>2.82104435285907</v>
+        <v>3.009644616736986</v>
       </c>
       <c r="E53">
-        <v>4.101687481817249</v>
+        <v>2.683501994387163</v>
       </c>
       <c r="F53">
-        <v>3.096543688830708</v>
+        <v>2.227708535526731</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.169799252324521</v>
+        <v>2.652997946743359</v>
       </c>
       <c r="C54">
-        <v>3.447470274666749</v>
+        <v>2.426832867407221</v>
       </c>
       <c r="D54">
-        <v>2.839843479460255</v>
+        <v>3.032825804965004</v>
       </c>
       <c r="E54">
-        <v>4.137607646057274</v>
+        <v>2.700070736137516</v>
       </c>
       <c r="F54">
-        <v>3.118031044002534</v>
+        <v>2.232398951368995</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.192655882217108</v>
+        <v>2.670543186433207</v>
       </c>
       <c r="C55">
-        <v>3.475961511074247</v>
+        <v>2.44458136867083</v>
       </c>
       <c r="D55">
-        <v>2.858994224563886</v>
+        <v>3.056477447153094</v>
       </c>
       <c r="E55">
-        <v>4.173326678751977</v>
+        <v>2.717038260569744</v>
       </c>
       <c r="F55">
-        <v>3.139707329662452</v>
+        <v>2.237106378942204</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.215819669623235</v>
+        <v>2.688598861328818</v>
       </c>
       <c r="C56">
-        <v>3.50483784992485</v>
+        <v>2.463213247774281</v>
       </c>
       <c r="D56">
-        <v>2.878536614212917</v>
+        <v>3.08064100183827</v>
       </c>
       <c r="E56">
-        <v>4.208852000728355</v>
+        <v>2.734440417549318</v>
       </c>
       <c r="F56">
-        <v>3.161596299239895</v>
+        <v>2.241831001082657</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.239328915983813</v>
+        <v>2.707206017796384</v>
       </c>
       <c r="C57">
-        <v>3.534145331388649</v>
+        <v>2.482794312348036</v>
       </c>
       <c r="D57">
-        <v>2.898516248369274</v>
+        <v>3.10536125824483</v>
       </c>
       <c r="E57">
-        <v>4.244193487355306</v>
+        <v>2.752316619614085</v>
       </c>
       <c r="F57">
-        <v>3.183724371124895</v>
+        <v>2.246572988536027</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.263226013922838</v>
+        <v>2.726409573580492</v>
       </c>
       <c r="C58">
-        <v>3.563934892749577</v>
+        <v>2.503395097529133</v>
       </c>
       <c r="D58">
-        <v>2.918984983740439</v>
+        <v>3.130686475207089</v>
       </c>
       <c r="E58">
-        <v>4.279363144470516</v>
+        <v>2.770710576302915</v>
       </c>
       <c r="F58">
-        <v>3.206120790021323</v>
+        <v>2.251332499698512</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3.287557776409446</v>
+        <v>2.746259082648639</v>
       </c>
       <c r="C59">
-        <v>3.594262606160672</v>
+        <v>2.525090732839111</v>
       </c>
       <c r="D59">
-        <v>2.940001754824088</v>
+        <v>3.156668573387521</v>
       </c>
       <c r="E59">
-        <v>4.314374813651275</v>
+        <v>2.789670711058811</v>
       </c>
       <c r="F59">
-        <v>3.22881781302362</v>
+        <v>2.256109680616148</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3.312375806014915</v>
+        <v>2.766809132641483</v>
       </c>
       <c r="C60">
-        <v>3.625189951526208</v>
+        <v>2.547960902325891</v>
       </c>
       <c r="D60">
-        <v>2.961633554367129</v>
+        <v>3.183363132818002</v>
       </c>
       <c r="E60">
-        <v>4.349243895846342</v>
+        <v>2.809250772460053</v>
       </c>
       <c r="F60">
-        <v>3.251850916897885</v>
+        <v>2.260904664858284</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3.337736903998767</v>
+        <v>2.788119941100578</v>
       </c>
       <c r="C61">
-        <v>3.656784112173656</v>
+        <v>2.572089048588852</v>
       </c>
       <c r="D61">
-        <v>2.983956600133549</v>
+        <v>3.210829560509615</v>
       </c>
       <c r="E61">
-        <v>4.383987087849541</v>
+        <v>2.829510490510672</v>
       </c>
       <c r="F61">
-        <v>3.275259092181794</v>
+        <v>2.265717573424644</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3.363703539640483</v>
+        <v>2.810257954735011</v>
       </c>
       <c r="C62">
-        <v>3.689118277343803</v>
+        <v>2.597561718987525</v>
       </c>
       <c r="D62">
-        <v>3.007057712403397</v>
+        <v>3.23913075159289</v>
       </c>
       <c r="E62">
-        <v>4.418622128630988</v>
+        <v>2.850516309553716</v>
       </c>
       <c r="F62">
-        <v>3.299085163488191</v>
+        <v>2.270548514778967</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3.390344334472827</v>
+        <v>2.83329653760807</v>
       </c>
       <c r="C63">
-        <v>3.722271971709253</v>
+        <v>2.624467445268802</v>
       </c>
       <c r="D63">
-        <v>3.031035929861687</v>
+        <v>3.268332888591898</v>
       </c>
       <c r="E63">
-        <v>4.453167553859529</v>
+        <v>2.872342231903304</v>
       </c>
       <c r="F63">
-        <v>3.32337614441047</v>
+        <v>2.275397584706539</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3.417734587971299</v>
+        <v>2.857316689161523</v>
       </c>
       <c r="C64">
-        <v>3.756331377758546</v>
+        <v>2.652895143449168</v>
       </c>
       <c r="D64">
-        <v>3.056004373654009</v>
+        <v>3.298504946628397</v>
       </c>
       <c r="E64">
-        <v>4.487642457762037</v>
+        <v>2.895070668649701</v>
       </c>
       <c r="F64">
-        <v>3.348183664235699</v>
+        <v>2.280264866467638</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.445956817019368</v>
+        <v>2.882407774179643</v>
       </c>
       <c r="C65">
-        <v>3.791389632676855</v>
+        <v>2.682931996017902</v>
       </c>
       <c r="D65">
-        <v>3.08209237559759</v>
+        <v>3.329717933213598</v>
       </c>
       <c r="E65">
-        <v>4.522066262185245</v>
+        <v>2.91879331314381</v>
       </c>
       <c r="F65">
-        <v>3.373564466838975</v>
+        <v>2.28515043043099</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3.475101286337945</v>
+        <v>2.908668230939918</v>
       </c>
       <c r="C66">
-        <v>3.827547073968097</v>
+        <v>2.714660843196521</v>
       </c>
       <c r="D66">
-        <v>3.109447845948304</v>
+        <v>3.362043781600625</v>
       </c>
       <c r="E66">
-        <v>4.556458493323841</v>
+        <v>2.943611979035519</v>
       </c>
       <c r="F66">
-        <v>3.399580966084288</v>
+        <v>2.290054334518492</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3.50526649380986</v>
+        <v>2.936206216391136</v>
       </c>
       <c r="C67">
-        <v>3.864911389506367</v>
+        <v>2.748157125773548</v>
       </c>
       <c r="D67">
-        <v>3.138239775679202</v>
+        <v>3.395553946448013</v>
       </c>
       <c r="E67">
-        <v>4.590838566354758</v>
+        <v>2.969639353722234</v>
       </c>
       <c r="F67">
-        <v>3.426301869009279</v>
+        <v>2.294976623919391</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.536559552913056</v>
+        <v>2.965140062375064</v>
       </c>
       <c r="C68">
-        <v>3.903597619123716</v>
+        <v>2.783485469639305</v>
       </c>
       <c r="D68">
-        <v>3.168660706530727</v>
+        <v>3.430317469787068</v>
       </c>
       <c r="E68">
-        <v>4.625225579150273</v>
+        <v>2.996999496168361</v>
       </c>
       <c r="F68">
-        <v>3.453802877742393</v>
+        <v>2.299917330819565</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3.569096388446858</v>
+        <v>2.995598477240512</v>
       </c>
       <c r="C69">
-        <v>3.943727935840081</v>
+        <v>2.820696096732478</v>
       </c>
       <c r="D69">
-        <v>3.20092882133721</v>
+        <v>3.466398764648861</v>
       </c>
       <c r="E69">
-        <v>4.659638116294025</v>
+        <v>3.025827952987551</v>
       </c>
       <c r="F69">
-        <v>3.482167431803058</v>
+        <v>2.304876475709324</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.603001643076863</v>
+        <v>3.027720462585766</v>
       </c>
       <c r="C70">
-        <v>3.985431117376676</v>
+        <v>2.859821352169151</v>
       </c>
       <c r="D70">
-        <v>3.235289157812367</v>
+        <v>3.503855041088495</v>
       </c>
       <c r="E70">
-        <v>4.694094064586441</v>
+        <v>3.056271282313941</v>
       </c>
       <c r="F70">
-        <v>3.511487497081754</v>
+        <v>2.309854065649376</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.638408143448239</v>
+        <v>3.061654206125589</v>
       </c>
       <c r="C71">
-        <v>4.028841601496457</v>
+        <v>2.900872710849837</v>
       </c>
       <c r="D71">
-        <v>3.272013192547349</v>
+        <v>3.542733517634694</v>
       </c>
       <c r="E71">
-        <v>4.728610441971833</v>
+        <v>3.088485176089657</v>
       </c>
       <c r="F71">
-        <v>3.541864387429718</v>
+        <v>2.314850095522357</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3.675455763370501</v>
+        <v>3.097555470991805</v>
       </c>
       <c r="C72">
-        <v>4.074098007155177</v>
+        <v>2.943838548465526</v>
       </c>
       <c r="D72">
-        <v>3.311394672636291</v>
+        <v>3.583068614880786</v>
       </c>
       <c r="E72">
-        <v>4.763203240868988</v>
+        <v>3.122631727724096</v>
       </c>
       <c r="F72">
-        <v>3.573409555792738</v>
+        <v>2.319864548256353</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3.714289444990172</v>
+        <v>3.135584793379541</v>
       </c>
       <c r="C73">
-        <v>4.121340984374216</v>
+        <v>2.988683376663431</v>
       </c>
       <c r="D73">
-        <v>3.353741027629647</v>
+        <v>3.624879415556432</v>
       </c>
       <c r="E73">
-        <v>4.797887286076693</v>
+        <v>3.158874767290481</v>
       </c>
       <c r="F73">
-        <v>3.606245272979208</v>
+        <v>2.324897393853571</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3.755056152374159</v>
+        <v>3.175903148914681</v>
       </c>
       <c r="C74">
-        <v>4.170710287425887</v>
+        <v>3.035348371291727</v>
       </c>
       <c r="D74">
-        <v>3.3993582917114</v>
+        <v>3.668167428709036</v>
       </c>
       <c r="E74">
-        <v>4.832676112801138</v>
+        <v>3.197372868549235</v>
       </c>
       <c r="F74">
-        <v>3.640505083513259</v>
+        <v>2.329948590508063</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3.797900622330317</v>
+        <v>3.218665967129597</v>
       </c>
       <c r="C75">
-        <v>4.222340988709266</v>
+        <v>3.083753092578367</v>
       </c>
       <c r="D75">
-        <v>3.448527683156116</v>
+        <v>3.712915761281807</v>
       </c>
       <c r="E75">
-        <v>4.867581863385348</v>
+        <v>3.238270234581759</v>
       </c>
       <c r="F75">
-        <v>3.676334027067099</v>
+        <v>2.335018084239044</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3.84295949860312</v>
+        <v>3.26401552047987</v>
       </c>
       <c r="C76">
-        <v>4.276358826846209</v>
+        <v>3.133798771872721</v>
       </c>
       <c r="D76">
-        <v>3.501474533348071</v>
+        <v>3.759088861658814</v>
       </c>
       <c r="E76">
-        <v>4.902615202994142</v>
+        <v>3.281685596963479</v>
       </c>
       <c r="F76">
-        <v>3.7138879065646</v>
+        <v>2.340105808873129</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3.890354340181346</v>
+        <v>3.312071912523233</v>
       </c>
       <c r="C77">
-        <v>4.332874795692831</v>
+        <v>3.185372527011997</v>
       </c>
       <c r="D77">
-        <v>3.558333561317625</v>
+        <v>3.806633509470501</v>
       </c>
       <c r="E77">
-        <v>4.937785255064888</v>
+        <v>3.327700143152295</v>
       </c>
       <c r="F77">
-        <v>3.75333198149893</v>
+        <v>2.345211686701318</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.940183583434226</v>
+        <v>3.362923333228795</v>
       </c>
       <c r="C78">
-        <v>4.391979244376114</v>
+        <v>3.2383520069476</v>
       </c>
       <c r="D78">
-        <v>3.619117508864102</v>
+        <v>3.855480953699675</v>
       </c>
       <c r="E78">
-        <v>4.973099559647116</v>
+        <v>3.376346128052043</v>
       </c>
       <c r="F78">
-        <v>3.794838443905163</v>
+        <v>2.350335627914059</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.992513921612854</v>
+        <v>3.416616647876717</v>
       </c>
       <c r="C79">
-        <v>4.453735925030155</v>
+        <v>3.292610082489849</v>
       </c>
       <c r="D79">
-        <v>3.683699428166704</v>
+        <v>3.90554998446696</v>
       </c>
       <c r="E79">
-        <v>5.008564052236624</v>
+        <v>3.427598255164398</v>
       </c>
       <c r="F79">
-        <v>3.838582202235197</v>
+        <v>2.355477531171222</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.047372419100229</v>
+        <v>3.473149751029031</v>
       </c>
       <c r="C80">
-        <v>4.518176586628264</v>
+        <v>3.348019179205879</v>
       </c>
       <c r="D80">
-        <v>3.751817830012337</v>
+        <v>3.956750503355343</v>
       </c>
       <c r="E80">
-        <v>5.044183063182475</v>
+        <v>3.481370825032251</v>
       </c>
       <c r="F80">
-        <v>3.884734697537092</v>
+        <v>2.360637283752899</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4.104740442750517</v>
+        <v>3.532467740432384</v>
       </c>
       <c r="C81">
-        <v>4.585296813630451</v>
+        <v>3.404454952237181</v>
       </c>
       <c r="D81">
-        <v>3.82310360264309</v>
+        <v>4.0089872257003</v>
       </c>
       <c r="E81">
-        <v>5.079959336632906</v>
+        <v>3.537520776586164</v>
       </c>
       <c r="F81">
-        <v>3.933455597165207</v>
+        <v>2.36581476131754</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.164550703922825</v>
+        <v>3.594463055742888</v>
       </c>
       <c r="C82">
-        <v>4.655053762634151</v>
+        <v>3.461799098127539</v>
       </c>
       <c r="D82">
-        <v>3.897123625143817</v>
+        <v>4.06216322794238</v>
       </c>
       <c r="E82">
-        <v>5.115894067793289</v>
+        <v>3.595857072872828</v>
       </c>
       <c r="F82">
-        <v>3.98488247089233</v>
+        <v>2.371009828604889</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.226688251676006</v>
+        <v>3.658980762704634</v>
       </c>
       <c r="C83">
-        <v>4.727366281376918</v>
+        <v>3.519941371343542</v>
       </c>
       <c r="D83">
-        <v>3.97342767622085</v>
+        <v>4.116183026430173</v>
       </c>
       <c r="E83">
-        <v>5.15198695774008</v>
+        <v>3.656155241174525</v>
       </c>
       <c r="F83">
-        <v>4.039119027255626</v>
+        <v>2.376222339210187</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.290995630588164</v>
+        <v>3.725827988196492</v>
       </c>
       <c r="C84">
-        <v>4.802117589040314</v>
+        <v>3.578780767154671</v>
       </c>
       <c r="D84">
-        <v>4.051587331354668</v>
+        <v>4.170955012789664</v>
       </c>
       <c r="E84">
-        <v>5.18823628262046</v>
+        <v>3.718173585279431</v>
       </c>
       <c r="F84">
-        <v>4.09622318718207</v>
+        <v>2.381452135725917</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.3572816539699</v>
+        <v>3.794786163089016</v>
       </c>
       <c r="C85">
-        <v>4.879160317382035</v>
+        <v>3.63822606833489</v>
       </c>
       <c r="D85">
-        <v>4.131221240849655</v>
+        <v>4.226393191039908</v>
       </c>
       <c r="E85">
-        <v>5.224638975774959</v>
+        <v>3.781668603833858</v>
       </c>
       <c r="F85">
-        <v>4.156196675371137</v>
+        <v>2.3866990503515</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.42533232650442</v>
+        <v>3.865623942738591</v>
       </c>
       <c r="C86">
-        <v>4.958323254667722</v>
+        <v>3.698195827007582</v>
       </c>
       <c r="D86">
-        <v>4.212006342603791</v>
+        <v>4.282418264105645</v>
       </c>
       <c r="E86">
-        <v>5.261190701963045</v>
+        <v>3.846407505267272</v>
       </c>
       <c r="F86">
-        <v>4.218978221394446</v>
+        <v>2.391962904464448</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.494922632723869</v>
+        <v>3.938109198468089</v>
       </c>
       <c r="C87">
-        <v>5.039418994381803</v>
+        <v>3.758618051067961</v>
       </c>
       <c r="D87">
-        <v>4.293679563410568</v>
+        <v>4.338958170091827</v>
       </c>
       <c r="E87">
-        <v>5.29788581307684</v>
+        <v>3.912176768796934</v>
       </c>
       <c r="F87">
-        <v>4.284443842847661</v>
+        <v>2.397243509211766</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4.565826986438525</v>
+        <v>4.012018716543116</v>
       </c>
       <c r="C88">
-        <v>5.122251665129387</v>
+        <v>3.819429591270453</v>
       </c>
       <c r="D88">
-        <v>4.37603101103999</v>
+        <v>4.395948138319151</v>
       </c>
       <c r="E88">
-        <v>5.334717356760054</v>
+        <v>3.978786875309292</v>
       </c>
       <c r="F88">
-        <v>4.352410940769367</v>
+        <v>2.402540665676841</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4.637828233314731</v>
+        <v>4.087145129584039</v>
       </c>
       <c r="C89">
-        <v>5.206624159395869</v>
+        <v>3.88057538367744</v>
       </c>
       <c r="D89">
-        <v>4.458896810827711</v>
+        <v>4.453330439119132</v>
       </c>
       <c r="E89">
-        <v>5.371677228916299</v>
+        <v>4.046073782146954</v>
       </c>
       <c r="F89">
-        <v>4.422650093297842</v>
+        <v>2.407854164787644</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.710723956229848</v>
+        <v>4.163300998808923</v>
       </c>
       <c r="C90">
-        <v>5.292344203605962</v>
+        <v>3.942007652952218</v>
       </c>
       <c r="D90">
-        <v>4.542150751452695</v>
+        <v>4.511053922779661</v>
       </c>
       <c r="E90">
-        <v>5.408756377402895</v>
+        <v>4.113898209751609</v>
       </c>
       <c r="F90">
-        <v>4.494900056264683</v>
+        <v>2.413183787843742</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.784330426888043</v>
+        <v>4.240320544269373</v>
       </c>
       <c r="C91">
-        <v>5.379228865120028</v>
+        <v>4.003685095162557</v>
       </c>
       <c r="D91">
-        <v>4.625695927204888</v>
+        <v>4.569073410051884</v>
       </c>
       <c r="E91">
-        <v>5.445944957429497</v>
+        <v>4.182143527015945</v>
       </c>
       <c r="F91">
-        <v>4.568884466562867</v>
+        <v>2.418529306485847</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4.858484325693313</v>
+        <v>4.318059589753337</v>
       </c>
       <c r="C92">
-        <v>5.467107703888995</v>
+        <v>4.065572096454548</v>
       </c>
       <c r="D92">
-        <v>4.709458001345322</v>
+        <v>4.627349074696099</v>
       </c>
       <c r="E92">
-        <v>5.483232490679663</v>
+        <v>4.250712984592173</v>
       </c>
       <c r="F92">
-        <v>4.644326976589712</v>
+        <v>2.423890482921064</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4.933042819795545</v>
+        <v>4.39639433846842</v>
       </c>
       <c r="C93">
-        <v>5.555824430634185</v>
+        <v>4.12763800784408</v>
       </c>
       <c r="D93">
-        <v>4.793380258897497</v>
+        <v>4.685845808929097</v>
       </c>
       <c r="E93">
-        <v>5.520608004825292</v>
+        <v>4.319526793533413</v>
       </c>
       <c r="F93">
-        <v>4.720964138349619</v>
+        <v>2.429267070314677</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.007882570949505</v>
+        <v>4.475219483381284</v>
       </c>
       <c r="C94">
-        <v>5.645237652362303</v>
+        <v>4.18985648384784</v>
       </c>
       <c r="D94">
-        <v>4.877419163240094</v>
+        <v>4.744532603865894</v>
       </c>
       <c r="E94">
-        <v>5.558060160735685</v>
+        <v>4.388519328919924</v>
       </c>
       <c r="F94">
-        <v>4.798553131992114</v>
+        <v>2.434658812688595</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.082898322381752</v>
+        <v>4.554446030329529</v>
       </c>
       <c r="C95">
-        <v>5.735220699760484</v>
+        <v>4.252204892972145</v>
       </c>
       <c r="D95">
-        <v>4.961540683925755</v>
+        <v>4.803382001457146</v>
       </c>
       <c r="E95">
-        <v>5.595577357913265</v>
+        <v>4.457636630652441</v>
       </c>
       <c r="F95">
-        <v>4.876876895682185</v>
+        <v>2.440065445359049</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5.158000576300396</v>
+        <v>4.633999089631357</v>
       </c>
       <c r="C96">
-        <v>5.825660917694142</v>
+        <v>4.314663797682696</v>
       </c>
       <c r="D96">
-        <v>5.045718250654942</v>
+        <v>4.862369601461676</v>
       </c>
       <c r="E96">
-        <v>5.633147843733299</v>
+        <v>4.526834247885303</v>
       </c>
       <c r="F96">
-        <v>4.955746005170889</v>
+        <v>2.445486695126242</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5.233113662091796</v>
+        <v>4.71381578920921</v>
       </c>
       <c r="C97">
-        <v>5.916458637109957</v>
+        <v>4.37721650030158</v>
       </c>
       <c r="D97">
-        <v>5.129931022582947</v>
+        <v>4.921473628582467</v>
       </c>
       <c r="E97">
-        <v>5.670759811783833</v>
+        <v>4.596075440463433</v>
       </c>
       <c r="F97">
-        <v>5.034997927542696</v>
+        <v>2.450922280324181</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5.308173774897944</v>
+        <v>4.793843388840907</v>
       </c>
       <c r="C98">
-        <v>6.007525983560512</v>
+        <v>4.439848649535773</v>
       </c>
       <c r="D98">
-        <v>5.214162350791459</v>
+        <v>4.980674561253474</v>
       </c>
       <c r="E98">
-        <v>5.708401475046007</v>
+        <v>4.665329700273535</v>
       </c>
       <c r="F98">
-        <v>5.114494836057892</v>
+        <v>2.456371911263679</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5.383127233321952</v>
+        <v>4.874037627710628</v>
       </c>
       <c r="C99">
-        <v>6.098785606891463</v>
+        <v>4.502547901585216</v>
       </c>
       <c r="D99">
-        <v>5.298398678461247</v>
+        <v>5.039954814700966</v>
       </c>
       <c r="E99">
-        <v>5.746061130354029</v>
+        <v>4.734571551765467</v>
       </c>
       <c r="F99">
-        <v>5.194121046356372</v>
+        <v>2.46183529027034</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5.45792876289405</v>
+        <v>4.95436130633795</v>
       </c>
       <c r="C100">
-        <v>6.190169452727952</v>
+        <v>4.565303629115551</v>
       </c>
       <c r="D100">
-        <v>5.382628791197698</v>
+        <v>5.099298472213208</v>
       </c>
       <c r="E100">
-        <v>5.783727219072547</v>
+        <v>4.803779592093423</v>
       </c>
       <c r="F100">
-        <v>5.273780237294413</v>
+        <v>2.467312111950246</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5.532540131265529</v>
+        <v>5.034783087765242</v>
       </c>
       <c r="C101">
-        <v>6.281617610772813</v>
+        <v>4.628106672365917</v>
       </c>
       <c r="D101">
-        <v>5.466843286735986</v>
+        <v>5.158691058324673</v>
       </c>
       <c r="E101">
-        <v>5.821388381247887</v>
+        <v>4.872935721201337</v>
       </c>
       <c r="F101">
-        <v>5.35339249328352</v>
+        <v>2.472802063501738</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5.606929046455018</v>
+        <v>5.115276494975103</v>
       </c>
       <c r="C102">
-        <v>6.373077261684815</v>
+        <v>4.690949126672061</v>
       </c>
       <c r="D102">
-        <v>5.551034184148437</v>
+        <v>5.218119348392031</v>
       </c>
       <c r="E102">
-        <v>5.8590334984974</v>
+        <v>4.942024528665115</v>
       </c>
       <c r="F102">
-        <v>5.432891591484608</v>
+        <v>2.478304824774792</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5.681068166106423</v>
+        <v>5.195819081412066</v>
       </c>
       <c r="C103">
-        <v>6.46450173980543</v>
+        <v>4.753824161322711</v>
       </c>
       <c r="D103">
-        <v>5.635194607177353</v>
+        <v>5.277571208381124</v>
       </c>
       <c r="E103">
-        <v>5.89665172847203</v>
+        <v>5.01103280784082</v>
       </c>
       <c r="F103">
-        <v>5.512222716680263</v>
+        <v>2.483820068609562</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5.754934154554848</v>
+        <v>5.276391734763817</v>
       </c>
       <c r="C104">
-        <v>6.555849706997612</v>
+        <v>4.816725865433822</v>
       </c>
       <c r="D104">
-        <v>5.719318507053054</v>
+        <v>5.337035459935956</v>
       </c>
       <c r="E104">
-        <v>5.934232533617593</v>
+        <v>5.079949166471808</v>
       </c>
       <c r="F104">
-        <v>5.591340475578841</v>
+        <v>2.489347461036515</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5.828507078928543</v>
+        <v>5.356978112801047</v>
       </c>
       <c r="C105">
-        <v>6.647084437379836</v>
+        <v>4.879649117171293</v>
       </c>
       <c r="D105">
-        <v>5.803400452748482</v>
+        <v>5.396501767069762</v>
       </c>
       <c r="E105">
-        <v>5.971765704973454</v>
+        <v>5.148763717191979</v>
       </c>
       <c r="F105">
-        <v>5.670207198738909</v>
+        <v>2.494886661443863</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5.901769872248441</v>
+        <v>5.437564185011381</v>
       </c>
       <c r="C106">
-        <v>6.738173197010338</v>
+        <v>4.942589470215362</v>
       </c>
       <c r="D106">
-        <v>5.887435514192201</v>
+        <v>5.455960540351457</v>
       </c>
       <c r="E106">
-        <v>6.009241380610353</v>
+        <v>5.217467830173756</v>
       </c>
       <c r="F106">
-        <v>5.748791546974268</v>
+        <v>2.500437322875506</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5.974707853913621</v>
+        <v>5.518137849759894</v>
       </c>
       <c r="C107">
-        <v>6.829086714648213</v>
+        <v>5.005543058850168</v>
       </c>
       <c r="D107">
-        <v>5.971419172191843</v>
+        <v>5.515402856108443</v>
       </c>
       <c r="E107">
-        <v>6.046650059176051</v>
+        <v>5.286053935286433</v>
       </c>
       <c r="F107">
-        <v>5.827067379969446</v>
+        <v>2.505999092193533</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6.04730831524226</v>
+        <v>5.598688616840714</v>
       </c>
       <c r="C108">
-        <v>6.919798727189926</v>
+        <v>5.068506518788749</v>
       </c>
       <c r="D108">
-        <v>6.055347245125252</v>
+        <v>5.57482038723075</v>
       </c>
       <c r="E108">
-        <v>6.083982608924439</v>
+        <v>5.354515360593198</v>
       </c>
       <c r="F108">
-        <v>5.905012818126539</v>
+        <v>2.511571610321786</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6.119560202114903</v>
+        <v>5.679207350286948</v>
       </c>
       <c r="C109">
-        <v>7.010285593801085</v>
+        <v>5.131476917212596</v>
       </c>
       <c r="D109">
-        <v>6.139215828662456</v>
+        <v>5.634205343417722</v>
       </c>
       <c r="E109">
-        <v>6.121230273972999</v>
+        <v>5.422846198779629</v>
       </c>
       <c r="F109">
-        <v>5.982609490760134</v>
+        <v>2.51715451248254</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6.191453870841364</v>
+        <v>5.75968605841964</v>
       </c>
       <c r="C110">
-        <v>7.100525965986331</v>
+        <v>5.194451693335498</v>
       </c>
       <c r="D110">
-        <v>6.223021245831567</v>
+        <v>5.693550421334118</v>
       </c>
       <c r="E110">
-        <v>6.158384677497823</v>
+        <v>5.491041203345776</v>
       </c>
       <c r="F110">
-        <v>6.0598419230224</v>
+        <v>2.522747428389098</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6.262980882090333</v>
+        <v>5.840117719620822</v>
       </c>
       <c r="C111">
-        <v>7.19050050752876</v>
+        <v>5.257428607764131</v>
       </c>
       <c r="D111">
-        <v>6.306760010186389</v>
+        <v>5.75284876265316</v>
       </c>
       <c r="E111">
-        <v>6.195437822042778</v>
+        <v>5.55909570644997</v>
       </c>
       <c r="F111">
-        <v>6.136697043631501</v>
+        <v>2.528349982484211</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6.33413382047187</v>
+        <v>5.920496137264462</v>
       </c>
       <c r="C112">
-        <v>7.28019165726062</v>
+        <v>5.320405699890578</v>
       </c>
       <c r="D112">
-        <v>6.390428804247204</v>
+        <v>5.812093915956734</v>
       </c>
       <c r="E112">
-        <v>6.232382087669141</v>
+        <v>5.627005546707423</v>
       </c>
       <c r="F112">
-        <v>6.213163787194708</v>
+        <v>2.533961794157543</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6.404906143793632</v>
+        <v>6.000815820643361</v>
       </c>
       <c r="C113">
-        <v>7.369583423189337</v>
+        <v>5.38338125110958</v>
       </c>
       <c r="D113">
-        <v>6.474024462040755</v>
+        <v>5.871279803376297</v>
       </c>
       <c r="E113">
-        <v>6.269210228127583</v>
+        <v>5.6947670072119</v>
       </c>
       <c r="F113">
-        <v>6.289232758508597</v>
+        <v>2.539582477968227</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6.475292062765742</v>
+        <v>6.081071886793177</v>
       </c>
       <c r="C114">
-        <v>7.45866120333928</v>
+        <v>5.44635375277012</v>
       </c>
       <c r="D114">
-        <v>6.55754395360213</v>
+        <v>5.930400692177649</v>
       </c>
       <c r="E114">
-        <v>6.305915365667009</v>
+        <v>5.762376765466556</v>
       </c>
       <c r="F114">
-        <v>6.364895966383048</v>
+        <v>2.545211643841633</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6.545286443882175</v>
+        <v>6.161259977732651</v>
       </c>
       <c r="C115">
-        <v>7.547411639511115</v>
+        <v>5.509321879156066</v>
       </c>
       <c r="D115">
-        <v>6.640984372474237</v>
+        <v>5.989451170119481</v>
       </c>
       <c r="E115">
-        <v>6.342490984293479</v>
+        <v>5.829831852874406</v>
       </c>
       <c r="F115">
-        <v>6.440146598665007</v>
+        <v>2.550848897322158</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6.614884727375591</v>
+        <v>6.241376191390108</v>
       </c>
       <c r="C116">
-        <v>7.635822493022776</v>
+        <v>5.57228446416155</v>
       </c>
       <c r="D116">
-        <v>6.724342926062445</v>
+        <v>6.048426123400102</v>
       </c>
       <c r="E116">
-        <v>6.378930922032973</v>
+        <v>5.897129620156794</v>
       </c>
       <c r="F116">
-        <v>6.514978892303049</v>
+        <v>2.556493839766397</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6.684082856768725</v>
+        <v>6.321417024327583</v>
       </c>
       <c r="C117">
-        <v>7.723882533276242</v>
+        <v>5.635240481194344</v>
       </c>
       <c r="D117">
-        <v>6.807616928519131</v>
+        <v>6.107320716855764</v>
       </c>
       <c r="E117">
-        <v>6.415229362541169</v>
+        <v>5.964267706954683</v>
       </c>
       <c r="F117">
-        <v>6.589387973002393</v>
+        <v>2.562146068528445</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6.752877219642531</v>
+        <v>6.401379323118046</v>
       </c>
       <c r="C118">
-        <v>7.811581438832738</v>
+        <v>5.698189025833031</v>
       </c>
       <c r="D118">
-        <v>6.890803795176291</v>
+        <v>6.166130376371701</v>
       </c>
       <c r="E118">
-        <v>6.451380825742238</v>
+        <v>6.031244015497372</v>
       </c>
       <c r="F118">
-        <v>6.663369727108755</v>
+        <v>2.567805177247231</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6.821264598632917</v>
+        <v>6.481260243500282</v>
       </c>
       <c r="C119">
-        <v>7.898909712750892</v>
+        <v>5.761129300718866</v>
       </c>
       <c r="D119">
-        <v>6.973901038959336</v>
+        <v>6.224850773213695</v>
       </c>
       <c r="E119">
-        <v>6.487380158036418</v>
+        <v>6.09805668812034</v>
       </c>
       <c r="F119">
-        <v>6.736920703482798</v>
+        <v>2.573470755996025</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6.88924213043979</v>
+        <v>6.561057215527386</v>
       </c>
       <c r="C120">
-        <v>7.985858610908725</v>
+        <v>5.824060602691925</v>
       </c>
       <c r="D120">
-        <v>7.056906266445666</v>
+        <v>6.283477809870527</v>
       </c>
       <c r="E120">
-        <v>6.523222522215703</v>
+        <v>6.164704087926841</v>
       </c>
       <c r="F120">
-        <v>6.810038033549426</v>
+        <v>2.579142391516018</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6.956807270764462</v>
+        <v>6.640767912958299</v>
       </c>
       <c r="C121">
-        <v>8.072420078950625</v>
+        <v>5.886982311534742</v>
       </c>
       <c r="D121">
-        <v>7.139817174531289</v>
+        <v>6.342007607154787</v>
       </c>
       <c r="E121">
-        <v>6.558903387049209</v>
+        <v>6.231184781511761</v>
       </c>
       <c r="F121">
-        <v>6.882719366230477</v>
+        <v>2.584819667451873</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7.023957764079367</v>
+        <v>6.720390228043888</v>
       </c>
       <c r="C122">
-        <v>8.158586696051074</v>
+        <v>5.949893880210785</v>
       </c>
       <c r="D122">
-        <v>7.222631547813952</v>
+        <v>6.400436492452699</v>
       </c>
       <c r="E122">
-        <v>6.594418516744284</v>
+        <v>6.297497523616112</v>
       </c>
       <c r="F122">
-        <v>6.954962812820987</v>
+        <v>2.590502164447614</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7.090691617666153</v>
+        <v>6.799922250362415</v>
       </c>
       <c r="C123">
-        <v>8.24435162700108</v>
+        <v>6.012794826417591</v>
       </c>
       <c r="D123">
-        <v>7.305347256402512</v>
+        <v>6.458760988964507</v>
       </c>
       <c r="E123">
-        <v>6.62976396036836</v>
+        <v>6.363641243415858</v>
       </c>
       <c r="F123">
-        <v>7.026766901952231</v>
+        <v>2.596189460506507</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7.157007079470911</v>
+        <v>6.879362248491915</v>
       </c>
       <c r="C124">
-        <v>8.329708573198669</v>
+        <v>6.075684725282368</v>
       </c>
       <c r="D124">
-        <v>7.387962253996452</v>
+        <v>6.516977805848936</v>
       </c>
       <c r="E124">
-        <v>6.664936041272622</v>
+        <v>6.429615032302114</v>
       </c>
       <c r="F124">
-        <v>7.098130534965848</v>
+        <v>2.601881131093289</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7.222902620233076</v>
+        <v>6.958708653375155</v>
       </c>
       <c r="C125">
-        <v>8.414651741873136</v>
+        <v>6.138563202815338</v>
       </c>
       <c r="D125">
-        <v>7.470474576123795</v>
+        <v>6.575083829102082</v>
       </c>
       <c r="E125">
-        <v>6.699931346589086</v>
+        <v>6.495418132862719</v>
       </c>
       <c r="F125">
-        <v>7.169052951120141</v>
+        <v>2.607576749299089</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7.288376913842527</v>
+        <v>7.037960043607488</v>
       </c>
       <c r="C126">
-        <v>8.499175790410604</v>
+        <v>6.201429929787939</v>
       </c>
       <c r="D126">
-        <v>7.552882338450252</v>
+        <v>6.633076113087975</v>
       </c>
       <c r="E126">
-        <v>6.734746716823915</v>
+        <v>6.561049928844304</v>
       </c>
       <c r="F126">
-        <v>7.239533697997439</v>
+        <v>2.613275886172415</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7.353428824094692</v>
+        <v>7.117115132601597</v>
       </c>
       <c r="C127">
-        <v>8.583275818657059</v>
+        <v>6.26428461740057</v>
       </c>
       <c r="D127">
-        <v>7.635183735166279</v>
+        <v>6.690951872664277</v>
       </c>
       <c r="E127">
-        <v>6.769379235548048</v>
+        <v>6.62650993596827</v>
       </c>
       <c r="F127">
-        <v>7.309572605950568</v>
+        <v>2.618978110780631</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7.418057393136916</v>
+        <v>7.196172757872785</v>
       </c>
       <c r="C128">
-        <v>8.666947329210949</v>
+        <v>6.327127012940595</v>
       </c>
       <c r="D128">
-        <v>7.717377037441167</v>
+        <v>6.748708475886198</v>
       </c>
       <c r="E128">
-        <v>6.803826219162395</v>
+        <v>6.69179779351865</v>
       </c>
       <c r="F128">
-        <v>7.37916976542404</v>
+        <v>2.624682990461003</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7.482261824283317</v>
+        <v>7.275131871440638</v>
       </c>
       <c r="C129">
-        <v>8.750186198427722</v>
+        <v>6.389956895962698</v>
       </c>
       <c r="D129">
-        <v>7.799460591964729</v>
+        <v>6.806343437068353</v>
       </c>
       <c r="E129">
-        <v>6.838085206713674</v>
+        <v>6.756913256611792</v>
       </c>
       <c r="F129">
-        <v>7.448325506980618</v>
+        <v>2.630390091055366</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7.546041480677031</v>
+        <v>7.353991531271904</v>
       </c>
       <c r="C130">
-        <v>8.832988665991421</v>
+        <v>6.452774074894002</v>
       </c>
       <c r="D130">
-        <v>7.881432819504185</v>
+        <v>6.863854410515681</v>
       </c>
       <c r="E130">
-        <v>6.8721539497645</v>
+        <v>6.821856189230263</v>
       </c>
       <c r="F130">
-        <v>7.51704038332667</v>
+        <v>2.636098976957606</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7.609395871077744</v>
+        <v>7.432750893952966</v>
       </c>
       <c r="C131">
-        <v>8.915351299975656</v>
+        <v>6.515578384060079</v>
       </c>
       <c r="D131">
-        <v>7.963292213467755</v>
+        <v>6.921239183700956</v>
       </c>
       <c r="E131">
-        <v>6.906030402362466</v>
+        <v>6.886626557235206</v>
       </c>
       <c r="F131">
-        <v>7.585315153098508</v>
+        <v>2.64180921148319</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7.672324641746283</v>
+        <v>7.511409206224345</v>
       </c>
       <c r="C132">
-        <v>8.997270982053454</v>
+        <v>6.578369681014729</v>
       </c>
       <c r="D132">
-        <v>8.045037338471243</v>
+        <v>6.978495672249166</v>
       </c>
       <c r="E132">
-        <v>6.939712711181177</v>
+        <v>6.951224422504767</v>
       </c>
       <c r="F132">
-        <v>7.6531507666492</v>
+        <v>2.647520356932058</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7.734827570114192</v>
+        <v>7.589965800100619</v>
       </c>
       <c r="C133">
-        <v>9.078744889026842</v>
+        <v>6.641147844274824</v>
       </c>
       <c r="D133">
-        <v>8.126666828906725</v>
+        <v>7.035621914411419</v>
       </c>
       <c r="E133">
-        <v>6.973199205951436</v>
+        <v>7.015649936808297</v>
       </c>
       <c r="F133">
-        <v>7.720548353178276</v>
+        <v>2.653231974742243</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7.796904557073512</v>
+        <v>7.668420086232867</v>
       </c>
       <c r="C134">
-        <v>9.159770471266402</v>
+        <v>6.703912771316442</v>
       </c>
       <c r="D134">
-        <v>8.20817938751448</v>
+        <v>7.092616065637996</v>
       </c>
       <c r="E134">
-        <v>7.006488390147333</v>
+        <v>7.07990333631731</v>
       </c>
       <c r="F134">
-        <v>7.787509210023763</v>
+        <v>2.658943625814882</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7.858555619773104</v>
+        <v>7.746771548304119</v>
       </c>
       <c r="C135">
-        <v>9.240345443075137</v>
+        <v>6.766664376718664</v>
       </c>
       <c r="D135">
-        <v>8.289573783960865</v>
+        <v>7.149476394016269</v>
       </c>
       <c r="E135">
-        <v>7.039578932073305</v>
+        <v>7.143984937505923</v>
       </c>
       <c r="F135">
-        <v>7.854034788644951</v>
+        <v>2.664654870523202</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7.919780887547011</v>
+        <v>7.825019741642464</v>
       </c>
       <c r="C136">
-        <v>9.320467765929493</v>
+        <v>6.829402590654026</v>
       </c>
       <c r="D136">
-        <v>8.370848853412818</v>
+        <v>7.206201275549175</v>
       </c>
       <c r="E136">
-        <v>7.072469656314451</v>
+        <v>7.207895131661982</v>
       </c>
       <c r="F136">
-        <v>7.920126689156872</v>
+        <v>2.670365268975276</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7.980580596032521</v>
+        <v>7.903164284226189</v>
       </c>
       <c r="C137">
-        <v>9.400135632594091</v>
+        <v>6.89212735743783</v>
       </c>
       <c r="D137">
-        <v>8.452003495108803</v>
+        <v>7.262789189546234</v>
       </c>
       <c r="E137">
-        <v>7.105159535562648</v>
+        <v>7.271634380604246</v>
       </c>
       <c r="F137">
-        <v>7.985786644304933</v>
+        <v>2.676074381222234</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>8.04095508162332</v>
+        <v>7.981204857604572</v>
       </c>
       <c r="C138">
-        <v>9.479347459267053</v>
+        <v>6.954838634366401</v>
       </c>
       <c r="D138">
-        <v>8.533036670929798</v>
+        <v>7.319238714278916</v>
       </c>
       <c r="E138">
-        <v>7.137647682807907</v>
+        <v>7.335203212673271</v>
       </c>
       <c r="F138">
-        <v>8.051016518493149</v>
+        <v>2.681781767300976</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>8.100904777907672</v>
+        <v>8.059141199678102</v>
       </c>
       <c r="C139">
-        <v>9.558101869616111</v>
+        <v>7.01753638997385</v>
       </c>
       <c r="D139">
-        <v>8.613947403972166</v>
+        <v>7.375548523251229</v>
       </c>
       <c r="E139">
-        <v>7.169933343890988</v>
+        <v>7.398602218595223</v>
       </c>
       <c r="F139">
-        <v>8.115818294181734</v>
+        <v>2.687486987502708</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>8.160430210695205</v>
+        <v>8.136973102849307</v>
       </c>
       <c r="C140">
-        <v>9.636397685447665</v>
+        <v>7.080220604071296</v>
       </c>
       <c r="D140">
-        <v>8.694734777126817</v>
+        <v>7.431717381221042</v>
       </c>
       <c r="E140">
-        <v>7.202015890401249</v>
+        <v>7.461832047448428</v>
       </c>
       <c r="F140">
-        <v>8.180194067646278</v>
+        <v>2.693189602483296</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>8.219531994121709</v>
+        <v>8.214700410779448</v>
       </c>
       <c r="C141">
-        <v>9.714233919226295</v>
+        <v>7.142891265047863</v>
       </c>
       <c r="D141">
-        <v>8.775397931654988</v>
+        <v>7.487744140421375</v>
       </c>
       <c r="E141">
-        <v>7.233894812908747</v>
+        <v>7.524893403701728</v>
       </c>
       <c r="F141">
-        <v>8.244146042018732</v>
+        <v>2.698889173446777</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>8.278210826760436</v>
+        <v>8.292323014304582</v>
       </c>
       <c r="C142">
-        <v>9.791609753298923</v>
+        <v>7.205548371448698</v>
       </c>
       <c r="D142">
-        <v>8.855936065774571</v>
+        <v>7.543627737135419</v>
       </c>
       <c r="E142">
-        <v>7.265569714523576</v>
+        <v>7.587787043666745</v>
       </c>
       <c r="F142">
-        <v>8.307676517960546</v>
+        <v>2.704585262305853</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>8.336467486729386</v>
+        <v>8.36984085073496</v>
       </c>
       <c r="C143">
-        <v>9.868524545683448</v>
+        <v>7.268191928643423</v>
       </c>
       <c r="D143">
-        <v>8.936348433259573</v>
+        <v>7.599367188311615</v>
       </c>
       <c r="E143">
-        <v>7.297040304725304</v>
+        <v>7.650513772142468</v>
       </c>
       <c r="F143">
-        <v>8.370787890548856</v>
+        <v>2.710277431838778</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>8.39430283182903</v>
+        <v>8.447253899421035</v>
       </c>
       <c r="C144">
-        <v>9.944977809221266</v>
+        <v>7.33082195077266</v>
       </c>
       <c r="D144">
-        <v>9.016634342045243</v>
+        <v>7.654961588303187</v>
       </c>
       <c r="E144">
-        <v>7.328306393547209</v>
+        <v>7.713074439844728</v>
       </c>
       <c r="F144">
-        <v>8.433482640350912</v>
+        <v>2.715965245836257</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>8.451717788739177</v>
+        <v>8.524562181052891</v>
       </c>
       <c r="C145">
-        <v>10.02096919805498</v>
+        <v>7.393438457944405</v>
       </c>
       <c r="D145">
-        <v>9.096793152842615</v>
+        <v>7.710410105784473</v>
       </c>
       <c r="E145">
-        <v>7.359367885987433</v>
+        <v>7.775469940392549</v>
       </c>
       <c r="F145">
-        <v>8.495763329870798</v>
+        <v>2.721648269267861</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>8.50871336137352</v>
+        <v>8.601765754511453</v>
       </c>
       <c r="C146">
-        <v>10.0964985330171</v>
+        <v>7.456041477341573</v>
       </c>
       <c r="D146">
-        <v>9.176824277766038</v>
+        <v>7.765711980790616</v>
       </c>
       <c r="E146">
-        <v>7.390224776695471</v>
+        <v>7.837701207764423</v>
       </c>
       <c r="F146">
-        <v>8.557632596791432</v>
+        <v>2.727326068412225</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>8.56529061480488</v>
+        <v>8.678864715027668</v>
       </c>
       <c r="C147">
-        <v>10.17156574225928</v>
+        <v>7.518631041558977</v>
       </c>
       <c r="D147">
-        <v>9.256727178975382</v>
+        <v>7.820866521489699</v>
       </c>
       <c r="E147">
-        <v>7.420877144932287</v>
+        <v>7.899769213722869</v>
       </c>
       <c r="F147">
-        <v>8.619093149724661</v>
+        <v>2.732998211023942</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>8.621450683322989</v>
+        <v>8.755859192552546</v>
       </c>
       <c r="C148">
-        <v>10.24617090191266</v>
+        <v>7.581207188820093</v>
       </c>
       <c r="D148">
-        <v>9.336501367335005</v>
+        <v>7.875873102267628</v>
       </c>
       <c r="E148">
-        <v>7.451325149748559</v>
+        <v>7.961674964560339</v>
       </c>
       <c r="F148">
-        <v>8.680147763796782</v>
+        <v>2.738664266468377</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>8.677194762239237</v>
+        <v>8.832749349485825</v>
       </c>
       <c r="C149">
-        <v>10.3203142063269</v>
+        <v>7.643769962128544</v>
       </c>
       <c r="D149">
-        <v>9.416146401082168</v>
+        <v>7.930731159225107</v>
       </c>
       <c r="E149">
-        <v>7.481569025219597</v>
+        <v>8.023419501512855</v>
       </c>
       <c r="F149">
-        <v>8.740799274568344</v>
+        <v>2.744323805878442</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>8.732524105657454</v>
+        <v>8.909535379792565</v>
       </c>
       <c r="C150">
-        <v>10.39399595886232</v>
+        <v>7.706319409173617</v>
       </c>
       <c r="D150">
-        <v>9.495661884533805</v>
+        <v>7.985440190689945</v>
       </c>
       <c r="E150">
-        <v>7.511609076401528</v>
+        <v>8.085003893076134</v>
       </c>
       <c r="F150">
-        <v>8.801050575799133</v>
+        <v>2.749976402293559</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8.787440026477524</v>
+        <v>8.986217505059299</v>
       </c>
       <c r="C151">
-        <v>10.46721658515579</v>
+        <v>7.768855581752471</v>
       </c>
       <c r="D151">
-        <v>9.575047466790306</v>
+        <v>8.039999750886151</v>
       </c>
       <c r="E151">
-        <v>7.541445675370079</v>
+        <v>8.146429240751353</v>
       </c>
       <c r="F151">
-        <v>8.8609046131764</v>
+        <v>2.755621630810269</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8.841943890266382</v>
+        <v>9.062795976957398</v>
       </c>
       <c r="C152">
-        <v>10.53997660359891</v>
+        <v>7.831378535715876</v>
       </c>
       <c r="D152">
-        <v>9.654302840464521</v>
+        <v>8.094409451971986</v>
       </c>
       <c r="E152">
-        <v>7.571079256932292</v>
+        <v>8.207696669460571</v>
       </c>
       <c r="F152">
-        <v>8.920364382016258</v>
+        <v>2.761259068727641</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>8.896037116246458</v>
+        <v>9.139271071604574</v>
       </c>
       <c r="C153">
-        <v>10.61227663784528</v>
+        <v>7.893888330447361</v>
       </c>
       <c r="D153">
-        <v>9.733427740435985</v>
+        <v>8.148668957579533</v>
       </c>
       <c r="E153">
-        <v>7.600510314001779</v>
+        <v>8.268807330173788</v>
       </c>
       <c r="F153">
-        <v>8.979432922200459</v>
+        <v>2.766888295693381</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>8.949721171913794</v>
+        <v>9.21564308838547</v>
       </c>
       <c r="C154">
-        <v>10.68411740227324</v>
+        <v>7.956385028833394</v>
       </c>
       <c r="D154">
-        <v>9.812421942627306</v>
+        <v>8.202777984346923</v>
       </c>
       <c r="E154">
-        <v>7.629739395780273</v>
+        <v>8.329762398940739</v>
       </c>
       <c r="F154">
-        <v>9.038113315282718</v>
+        <v>2.772508893849255</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>9.002997573886448</v>
+        <v>9.291912355796612</v>
       </c>
       <c r="C155">
-        <v>10.75549969767522</v>
+        <v>8.018868696837513</v>
       </c>
       <c r="D155">
-        <v>9.891285262799347</v>
+        <v>8.256736296742814</v>
       </c>
       <c r="E155">
-        <v>7.658767102089741</v>
+        <v>8.390563070686593</v>
       </c>
       <c r="F155">
-        <v>9.096408680956955</v>
+        <v>2.778120447977656</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>9.055867882773157</v>
+        <v>9.368079218497504</v>
       </c>
       <c r="C156">
-        <v>10.82642441366898</v>
+        <v>8.08133940340177</v>
       </c>
       <c r="D156">
-        <v>9.970017555373529</v>
+        <v>8.310543707497921</v>
       </c>
       <c r="E156">
-        <v>7.687594085290873</v>
+        <v>8.451210563529239</v>
       </c>
       <c r="F156">
-        <v>9.154322173178638</v>
+        <v>2.783722545651157</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>9.108333703414617</v>
+        <v>9.444144045108555</v>
       </c>
       <c r="C157">
-        <v>10.89689251111813</v>
+        <v>8.143797220167306</v>
       </c>
       <c r="D157">
-        <v>10.04861871227441</v>
+        <v>8.364200073568028</v>
       </c>
       <c r="E157">
-        <v>7.716221041570744</v>
+        <v>8.511706111802434</v>
       </c>
       <c r="F157">
-        <v>9.211856978150651</v>
+        <v>2.78931477738175</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>9.160396682223624</v>
+        <v>9.520107226270929</v>
       </c>
       <c r="C158">
-        <v>10.96690503272494</v>
+        <v>8.206242221293513</v>
       </c>
       <c r="D158">
-        <v>10.12708866179963</v>
+        <v>8.417705296026675</v>
       </c>
       <c r="E158">
-        <v>7.744648708483715</v>
+        <v>8.572050968604104</v>
       </c>
       <c r="F158">
-        <v>9.269016309949501</v>
+        <v>2.794896736777077</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>9.212058504342595</v>
+        <v>9.595969168121636</v>
       </c>
       <c r="C159">
-        <v>11.03646308810251</v>
+        <v>8.268674483458097</v>
       </c>
       <c r="D159">
-        <v>10.20542736751607</v>
+        <v>8.471059316876785</v>
       </c>
       <c r="E159">
-        <v>7.772877866274643</v>
+        <v>8.632246402304602</v>
       </c>
       <c r="F159">
-        <v>9.325803409016777</v>
+        <v>2.800468020698117</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>9.263320893905464</v>
+        <v>9.671730298096639</v>
       </c>
       <c r="C160">
-        <v>11.1055678525937</v>
+        <v>8.331094085379437</v>
       </c>
       <c r="D160">
-        <v>10.2836348271822</v>
+        <v>8.52426211831922</v>
       </c>
       <c r="E160">
-        <v>7.800909330763095</v>
+        <v>8.692293695670642</v>
       </c>
       <c r="F160">
-        <v>9.382221538297589</v>
+        <v>2.806028229417282</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>9.314185609553618</v>
+        <v>9.747391059285677</v>
       </c>
       <c r="C161">
-        <v>11.17422057042521</v>
+        <v>8.393501107562503</v>
       </c>
       <c r="D161">
-        <v>10.36171107169865</v>
+        <v>8.57731372062805</v>
       </c>
       <c r="E161">
-        <v>7.828743952080647</v>
+        <v>8.752194145710508</v>
       </c>
       <c r="F161">
-        <v>9.438273981396998</v>
+        <v>2.811576966792988</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>9.364654445511366</v>
+        <v>9.822951910881098</v>
       </c>
       <c r="C162">
-        <v>11.24242253869199</v>
+        <v>8.455895633024429</v>
       </c>
       <c r="D162">
-        <v>10.43965616408845</v>
+        <v>8.630214180513228</v>
       </c>
       <c r="E162">
-        <v>7.856382614737558</v>
+        <v>8.81194906021725</v>
       </c>
       <c r="F162">
-        <v>9.493964040424997</v>
+        <v>2.817113840440963</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>9.414729227286283</v>
+        <v>9.898413328837917</v>
       </c>
       <c r="C163">
-        <v>11.3101751165172</v>
+        <v>8.5182777462143</v>
       </c>
       <c r="D163">
-        <v>10.51747019850721</v>
+        <v>8.682963590049559</v>
       </c>
       <c r="E163">
-        <v>7.883826232836044</v>
+        <v>8.871559760105665</v>
       </c>
       <c r="F163">
-        <v>9.5492950322427</v>
+        <v>2.822638461916564</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>9.464411812112001</v>
+        <v>9.973775802079983</v>
       </c>
       <c r="C164">
-        <v>11.37747971329519</v>
+        <v>8.58064753260701</v>
       </c>
       <c r="D164">
-        <v>10.59515329928334</v>
+        <v>8.735562074443809</v>
       </c>
       <c r="E164">
-        <v>7.911075747617093</v>
+        <v>8.931027574594932</v>
       </c>
       <c r="F164">
-        <v>9.604270286021197</v>
+        <v>2.828150446907632</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>9.513704086065161</v>
+        <v>10.04903983413928</v>
       </c>
       <c r="C165">
-        <v>11.44433778814877</v>
+        <v>8.6430050800735</v>
       </c>
       <c r="D165">
-        <v>10.67270561998802</v>
+        <v>8.78800979155144</v>
       </c>
       <c r="E165">
-        <v>7.938132128237017</v>
+        <v>8.990353843239843</v>
       </c>
       <c r="F165">
-        <v>9.65889314585786</v>
+        <v>2.833649415437537</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>9.562607963654779</v>
+        <v>10.12420594176375</v>
       </c>
       <c r="C166">
-        <v>11.51075084966205</v>
+        <v>8.705350477966388</v>
       </c>
       <c r="D166">
-        <v>10.75012734253033</v>
+        <v>8.840306929432611</v>
       </c>
       <c r="E166">
-        <v>7.964996367736122</v>
+        <v>9.049539913826228</v>
       </c>
       <c r="F166">
-        <v>9.713166959370909</v>
+        <v>2.839134992082007</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>9.611125386269745</v>
+        <v>10.1992746527938</v>
       </c>
       <c r="C167">
-        <v>11.57672044689458</v>
+        <v>8.767683815948235</v>
       </c>
       <c r="D167">
-        <v>10.82741867626985</v>
+        <v>8.892453706188984</v>
       </c>
       <c r="E167">
-        <v>7.991669480078934</v>
+        <v>9.108587140979948</v>
       </c>
       <c r="F167">
-        <v>9.767095083508142</v>
+        <v>2.844606806201503</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>9.659258318006488</v>
+        <v>10.27424650870637</v>
       </c>
       <c r="C168">
-        <v>11.64224817478611</v>
+        <v>8.830005185673295</v>
       </c>
       <c r="D168">
-        <v>10.9045798571361</v>
+        <v>8.944450367453323</v>
       </c>
       <c r="E168">
-        <v>8.01815250141194</v>
+        <v>9.167496887023466</v>
       </c>
       <c r="F168">
-        <v>9.820680883574347</v>
+        <v>2.850064492191512</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>9.707008745705469</v>
+        <v>10.34912206034322</v>
       </c>
       <c r="C169">
-        <v>11.70733566423787</v>
+        <v>8.892314680385786</v>
       </c>
       <c r="D169">
-        <v>10.98161114674466</v>
+        <v>8.996297186477697</v>
       </c>
       <c r="E169">
-        <v>8.04444648672345</v>
+        <v>9.226270518937993</v>
       </c>
       <c r="F169">
-        <v>9.873927721941049</v>
+        <v>2.855507689744647</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>9.754378684135713</v>
+        <v>10.42390186929958</v>
       </c>
       <c r="C170">
-        <v>11.7719845831247</v>
+        <v>8.954612393448711</v>
       </c>
       <c r="D170">
-        <v>11.05851283150535</v>
+        <v>9.047994461585203</v>
       </c>
       <c r="E170">
-        <v>8.070552507145411</v>
+        <v>9.284909410020433</v>
       </c>
       <c r="F170">
-        <v>9.92683896823393</v>
+        <v>2.860936044147891</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>9.801370164951821</v>
+        <v>10.4985865083127</v>
       </c>
       <c r="C171">
-        <v>11.83619663605585</v>
+        <v>9.016898419682377</v>
       </c>
       <c r="D171">
-        <v>11.13528522172457</v>
+        <v>9.099542516446954</v>
       </c>
       <c r="E171">
-        <v>8.096471650929217</v>
+        <v>9.343414937025257</v>
       </c>
       <c r="F171">
-        <v>9.97941799077508</v>
+        <v>2.866349206593381</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>9.847985235362067</v>
+        <v>10.57317655789474</v>
       </c>
       <c r="C172">
-        <v>11.89997355605711</v>
+        <v>9.079172855190812</v>
       </c>
       <c r="D172">
-        <v>11.21192865070932</v>
+        <v>9.150941697576602</v>
       </c>
       <c r="E172">
-        <v>8.122205020960475</v>
+        <v>9.401788480917194</v>
       </c>
       <c r="F172">
-        <v>10.03166815417766</v>
+        <v>2.871746834513934</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>9.894225960587629</v>
+        <v>10.64767260828728</v>
       </c>
       <c r="C173">
-        <v>11.96331711002609</v>
+        <v>9.141435796417429</v>
       </c>
       <c r="D173">
-        <v>11.28844347388108</v>
+        <v>9.202192374677539</v>
       </c>
       <c r="E173">
-        <v>8.147753732156064</v>
+        <v>9.460031425977355</v>
       </c>
       <c r="F173">
-        <v>10.08359282523826</v>
+        <v>2.877128591946364</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>9.940094437700637</v>
+        <v>10.72207525807155</v>
       </c>
       <c r="C174">
-        <v>12.02622909008343</v>
+        <v>9.203687340797607</v>
       </c>
       <c r="D174">
-        <v>11.36483006790597</v>
+        <v>9.253294938317364</v>
       </c>
       <c r="E174">
-        <v>8.173118912250407</v>
+        <v>9.518145158466368</v>
       </c>
       <c r="F174">
-        <v>10.13519536238839</v>
+        <v>2.882494149919606</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>9.98559276435588</v>
+        <v>10.79638511303277</v>
       </c>
       <c r="C175">
-        <v>12.08871131506979</v>
+        <v>9.26592758667595</v>
       </c>
       <c r="D175">
-        <v>11.44108882984623</v>
+        <v>9.304249800586989</v>
       </c>
       <c r="E175">
-        <v>8.198301699975152</v>
+        <v>9.576131067530918</v>
       </c>
       <c r="F175">
-        <v>10.18647911992285</v>
+        <v>2.887843186860273</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10.03072305413849</v>
+        <v>10.87060278729149</v>
       </c>
       <c r="C176">
-        <v>12.15076562952355</v>
+        <v>9.328156632824593</v>
       </c>
       <c r="D176">
-        <v>11.5172201763354</v>
+        <v>9.35505739236433</v>
       </c>
       <c r="E176">
-        <v>8.223303242590962</v>
+        <v>9.633990542882184</v>
       </c>
       <c r="F176">
-        <v>10.23744744704088</v>
+        <v>2.893175389011802</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10.07548743480629</v>
+        <v>10.94472890102449</v>
       </c>
       <c r="C177">
-        <v>12.21239389788543</v>
+        <v>9.390374578703479</v>
       </c>
       <c r="D177">
-        <v>11.59322454277761</v>
+        <v>9.405718162618472</v>
       </c>
       <c r="E177">
-        <v>8.248124696524549</v>
+        <v>9.691724976035578</v>
       </c>
       <c r="F177">
-        <v>10.28810368249673</v>
+        <v>2.898490450858563</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>10.11988806169445</v>
+        <v>11.01876408122967</v>
       </c>
       <c r="C178">
-        <v>12.27359800831165</v>
+        <v>9.452581524567035</v>
       </c>
       <c r="D178">
-        <v>11.66910238257215</v>
+        <v>9.456232579798309</v>
       </c>
       <c r="E178">
-        <v>8.27276722609273</v>
+        <v>9.749335758593928</v>
       </c>
       <c r="F178">
-        <v>10.33845115789851</v>
+        <v>2.903788075539082</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.16392708368448</v>
+        <v>11.09270896158365</v>
       </c>
       <c r="C179">
-        <v>12.3343798657082</v>
+        <v>9.514777570895443</v>
       </c>
       <c r="D179">
-        <v>11.74485416636274</v>
+        <v>9.506601128643243</v>
       </c>
       <c r="E179">
-        <v>8.297232001187176</v>
+        <v>9.806824282333769</v>
       </c>
       <c r="F179">
-        <v>10.38849319480894</v>
+        <v>2.909067975233616</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.20760666563182</v>
+        <v>11.16656418066691</v>
       </c>
       <c r="C180">
-        <v>12.39474139345385</v>
+        <v>9.576962818697677</v>
       </c>
       <c r="D180">
-        <v>11.82048038131115</v>
+        <v>9.556824308054809</v>
       </c>
       <c r="E180">
-        <v>8.321520197769747</v>
+        <v>9.864191939068235</v>
       </c>
       <c r="F180">
-        <v>10.43823310190552</v>
+        <v>2.914329871505978</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.25092898322743</v>
+        <v>11.24033038318346</v>
       </c>
       <c r="C181">
-        <v>12.45468453212629</v>
+        <v>9.639137369770291</v>
       </c>
       <c r="D181">
-        <v>11.8959815303947</v>
+        <v>9.606902634282889</v>
       </c>
       <c r="E181">
-        <v>8.345632997046485</v>
+        <v>9.921440119389857</v>
       </c>
       <c r="F181">
-        <v>10.48767417927191</v>
+        <v>2.919573495585032</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.29389622794956</v>
+        <v>11.31400821875366</v>
       </c>
       <c r="C182">
-        <v>12.51421123503642</v>
+        <v>9.701301325919054</v>
       </c>
       <c r="D182">
-        <v>11.97135813172618</v>
+        <v>9.656836639952115</v>
       </c>
       <c r="E182">
-        <v>8.369571583304833</v>
+        <v>9.978570213498809</v>
       </c>
       <c r="F182">
-        <v>10.53681971139281</v>
+        <v>2.924798588571124</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.33651058956271</v>
+        <v>11.38759834140195</v>
       </c>
       <c r="C183">
-        <v>12.57332347158462</v>
+        <v>9.763454789389961</v>
       </c>
       <c r="D183">
-        <v>12.04661071789715</v>
+        <v>9.706626867422202</v>
       </c>
       <c r="E183">
-        <v>8.393337144288983</v>
+        <v>10.03558360959336</v>
       </c>
       <c r="F183">
-        <v>10.58567296961964</v>
+        <v>2.930004901559974</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10.37877426790669</v>
+        <v>11.46110141043947</v>
       </c>
       <c r="C184">
-        <v>12.63202322112099</v>
+        <v>9.825597863064857</v>
       </c>
       <c r="D184">
-        <v>12.12173983534279</v>
+        <v>9.756273873967174</v>
       </c>
       <c r="E184">
-        <v>8.416930870734955</v>
+        <v>10.0924816945867</v>
       </c>
       <c r="F184">
-        <v>10.63423721311993</v>
+        <v>2.935192195682704</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.42068947052852</v>
+        <v>11.53451808858766</v>
       </c>
       <c r="C185">
-        <v>12.69031247493303</v>
+        <v>9.887730649832491</v>
       </c>
       <c r="D185">
-        <v>12.19674604372719</v>
+        <v>9.805778232739646</v>
       </c>
       <c r="E185">
-        <v>8.44035395436028</v>
+        <v>10.14926585324911</v>
       </c>
       <c r="F185">
-        <v>10.68251568331502</v>
+        <v>2.940360242066693</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.46225841248743</v>
+        <v>11.60784904277076</v>
       </c>
       <c r="C186">
-        <v>12.74819323485167</v>
+        <v>9.949853252904544</v>
       </c>
       <c r="D186">
-        <v>12.27162991534971</v>
+        <v>9.855140524413478</v>
       </c>
       <c r="E186">
-        <v>8.463607588153677</v>
+        <v>10.20593746794121</v>
       </c>
       <c r="F186">
-        <v>10.7305116072224</v>
+        <v>2.94550882172574</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10.50348330907151</v>
+        <v>11.68109494382555</v>
       </c>
       <c r="C187">
-        <v>12.80566750993395</v>
+        <v>10.01196577588351</v>
       </c>
       <c r="D187">
-        <v>12.34639203457094</v>
+        <v>9.904361342164584</v>
       </c>
       <c r="E187">
-        <v>8.486692966165842</v>
+        <v>10.26249791881048</v>
       </c>
       <c r="F187">
-        <v>10.77822819603759</v>
+        <v>2.950637725391947</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>10.54436638058276</v>
+        <v>11.75425646547263</v>
       </c>
       <c r="C188">
-        <v>12.86273731894447</v>
+        <v>10.07406832248088</v>
       </c>
       <c r="D188">
-        <v>12.42103299725777</v>
+        <v>9.953441292700669</v>
       </c>
       <c r="E188">
-        <v>8.509611281663116</v>
+        <v>10.31894858275153</v>
       </c>
       <c r="F188">
-        <v>10.82566864236288</v>
+        <v>2.95574675330115</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>10.58490985338579</v>
+        <v>11.82733428505816</v>
       </c>
       <c r="C189">
-        <v>12.91940468563573</v>
+        <v>10.13616099657835</v>
       </c>
       <c r="D189">
-        <v>12.49555341024706</v>
+        <v>10.00238098982237</v>
       </c>
       <c r="E189">
-        <v>8.532363727429368</v>
+        <v>10.37529083413918</v>
       </c>
       <c r="F189">
-        <v>10.8728361230425</v>
+        <v>2.960835714943703</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>10.62511595632142</v>
+        <v>11.90032908262773</v>
       </c>
       <c r="C190">
-        <v>12.97567164031988</v>
+        <v>10.19824390230517</v>
       </c>
       <c r="D190">
-        <v>12.56995389081296</v>
+        <v>10.0511810576524</v>
       </c>
       <c r="E190">
-        <v>8.554951495558861</v>
+        <v>10.43152604365827</v>
       </c>
       <c r="F190">
-        <v>10.91973379582113</v>
+        <v>2.965904428791317</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>10.66498691649712</v>
+        <v>11.97324154080892</v>
       </c>
       <c r="C191">
-        <v>13.03154021859525</v>
+        <v>10.2603171438937</v>
       </c>
       <c r="D191">
-        <v>12.64423506601159</v>
+        <v>10.09984213102721</v>
       </c>
       <c r="E191">
-        <v>8.577375775970742</v>
+        <v>10.48765557878586</v>
       </c>
       <c r="F191">
-        <v>10.96636479958375</v>
+        <v>2.970952722007962</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>10.7045249630853</v>
+        <v>12.04607234519236</v>
       </c>
       <c r="C192">
-        <v>13.08701245895346</v>
+        <v>10.32238082564841</v>
       </c>
       <c r="D192">
-        <v>12.71839757260816</v>
+        <v>10.14836485201237</v>
       </c>
       <c r="E192">
-        <v>8.5996377566142</v>
+        <v>10.54368080337656</v>
       </c>
       <c r="F192">
-        <v>11.01273225584945</v>
+        <v>2.975980430157465</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>10.74373233051428</v>
+        <v>12.11882218317702</v>
       </c>
       <c r="C193">
-        <v>13.14209040462559</v>
+        <v>10.38443505202926</v>
       </c>
       <c r="D193">
-        <v>12.79244205632871</v>
+        <v>10.19674987059319</v>
       </c>
       <c r="E193">
-        <v>8.621738623284184</v>
+        <v>10.59960307729521</v>
       </c>
       <c r="F193">
-        <v>11.05883926492927</v>
+        <v>2.980987396896122</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>10.78261125005343</v>
+        <v>12.19149174452308</v>
       </c>
       <c r="C194">
-        <v>13.19677609984321</v>
+        <v>10.44647992756341</v>
       </c>
       <c r="D194">
-        <v>12.86636917132013</v>
+        <v>10.24499784547357</v>
       </c>
       <c r="E194">
-        <v>8.643679558442726</v>
+        <v>10.65542375672563</v>
       </c>
       <c r="F194">
-        <v>11.10468890806182</v>
+        <v>2.985973473674308</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>10.82116395079888</v>
+        <v>12.26408172107458</v>
       </c>
       <c r="C195">
-        <v>13.25107159120601</v>
+        <v>10.50851555676751</v>
       </c>
       <c r="D195">
-        <v>12.94017958036865</v>
+        <v>10.29310944231931</v>
       </c>
       <c r="E195">
-        <v>8.665461741345339</v>
+        <v>10.71114419339632</v>
       </c>
       <c r="F195">
-        <v>11.15028424706231</v>
+        <v>2.990938519444219</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>10.85939266118362</v>
+        <v>12.33659280610859</v>
       </c>
       <c r="C196">
-        <v>13.30497892652658</v>
+        <v>10.57054204424861</v>
       </c>
       <c r="D196">
-        <v>13.01387395335045</v>
+        <v>10.34108533259561</v>
       </c>
       <c r="E196">
-        <v>8.687086347891778</v>
+        <v>10.7667657350918</v>
       </c>
       <c r="F196">
-        <v>11.19562832189579</v>
+        <v>2.995882400369747</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>10.89729961368762</v>
+        <v>12.40902569492615</v>
       </c>
       <c r="C197">
-        <v>13.3585001530708</v>
+        <v>10.6325594946568</v>
       </c>
       <c r="D197">
-        <v>13.08745296752308</v>
+        <v>10.38892619503356</v>
       </c>
       <c r="E197">
-        <v>8.708554549713655</v>
+        <v>10.8222897249681</v>
       </c>
       <c r="F197">
-        <v>11.24072415293349</v>
+        <v>3.000804989542052</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>10.93488703254731</v>
+        <v>12.48138108403792</v>
       </c>
       <c r="C198">
-        <v>13.41163731898127</v>
+        <v>10.69456801255668</v>
       </c>
       <c r="D198">
-        <v>13.16091730728368</v>
+        <v>10.43663271513583</v>
       </c>
       <c r="E198">
-        <v>8.729867514103445</v>
+        <v>10.87771750175329</v>
       </c>
       <c r="F198">
-        <v>11.28557473916214</v>
+        <v>3.00570616670466</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>10.97215714034594</v>
+        <v>12.55365967127412</v>
       </c>
       <c r="C199">
-        <v>13.46439247030912</v>
+        <v>10.75656770254247</v>
       </c>
       <c r="D199">
-        <v>13.23426766322182</v>
+        <v>10.48420558227306</v>
       </c>
       <c r="E199">
-        <v>8.751026404046607</v>
+        <v>10.93305039963322</v>
       </c>
       <c r="F199">
-        <v>11.33018305768725</v>
+        <v>3.010585817988319</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>11.00911215671377</v>
+        <v>12.62586215593382</v>
       </c>
       <c r="C200">
-        <v>13.51676765218411</v>
+        <v>10.81855866922207</v>
       </c>
       <c r="D200">
-        <v>13.30750473212842</v>
+        <v>10.53164549176113</v>
       </c>
       <c r="E200">
-        <v>8.772032377502756</v>
+        <v>10.98828974789213</v>
       </c>
       <c r="F200">
-        <v>11.37455206546182</v>
+        <v>3.015443835653559</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.04575430208905</v>
+        <v>12.69798923804762</v>
       </c>
       <c r="C201">
-        <v>13.56876490777544</v>
+        <v>10.88054101707358</v>
       </c>
       <c r="D201">
-        <v>13.38062921680913</v>
+        <v>10.57895314533281</v>
       </c>
       <c r="E201">
-        <v>8.792886587257847</v>
+        <v>11.04343687123417</v>
       </c>
       <c r="F201">
-        <v>11.4186846964456</v>
+        <v>3.020280117842072</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.08208578724794</v>
+        <v>12.77004161876962</v>
       </c>
       <c r="C202">
-        <v>13.62038627705333</v>
+        <v>10.9425148505464</v>
       </c>
       <c r="D202">
-        <v>13.45364182523064</v>
+        <v>10.62612924730209</v>
       </c>
       <c r="E202">
-        <v>8.813590180970587</v>
+        <v>11.09849308922696</v>
       </c>
       <c r="F202">
-        <v>11.46258386310628</v>
+        <v>3.025094568337378</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>11.11810881998666</v>
+        <v>12.84202000011514</v>
       </c>
       <c r="C203">
-        <v>13.67163379782732</v>
+        <v>11.0044802740616</v>
       </c>
       <c r="D203">
-        <v>13.52654326997014</v>
+        <v>10.67317450672924</v>
       </c>
       <c r="E203">
-        <v>8.834144300609518</v>
+        <v>11.15345971664246</v>
       </c>
       <c r="F203">
-        <v>11.50625245651877</v>
+        <v>3.029887096334508</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>11.1538256037156</v>
+        <v>12.91392508460884</v>
       </c>
       <c r="C204">
-        <v>13.72250950344205</v>
+        <v>11.06643739188573</v>
       </c>
       <c r="D204">
-        <v>13.59933426949635</v>
+        <v>10.72008963798585</v>
       </c>
       <c r="E204">
-        <v>8.854550082279898</v>
+        <v>11.20833806311613</v>
       </c>
       <c r="F204">
-        <v>11.54969334458663</v>
+        <v>3.034657616218435</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>11.18923833917133</v>
+        <v>12.9857575756797</v>
       </c>
       <c r="C205">
-        <v>13.77301542375851</v>
+        <v>11.12838630820527</v>
       </c>
       <c r="D205">
-        <v>13.67201554613327</v>
+        <v>10.76687535755095</v>
       </c>
       <c r="E205">
-        <v>8.874808656327938</v>
+        <v>11.26312943316287</v>
       </c>
       <c r="F205">
-        <v>11.59290937355646</v>
+        <v>3.03940604735118</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>11.22434921730545</v>
+        <v>13.05751817701437</v>
       </c>
       <c r="C206">
-        <v>13.82315358423266</v>
+        <v>11.1903271271376</v>
       </c>
       <c r="D206">
-        <v>13.74458782619756</v>
+        <v>10.81353238556908</v>
       </c>
       <c r="E206">
-        <v>8.894921146913294</v>
+        <v>11.31783512622959</v>
       </c>
       <c r="F206">
-        <v>11.6359033672912</v>
+        <v>3.04413231386591</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>11.25916042408207</v>
+        <v>13.12920759276935</v>
       </c>
       <c r="C207">
-        <v>13.87292600506563</v>
+        <v>11.25225995262148</v>
       </c>
       <c r="D207">
-        <v>13.81705184241744</v>
+        <v>10.86006144606147</v>
       </c>
       <c r="E207">
-        <v>8.914888671768624</v>
+        <v>11.37245643639583</v>
       </c>
       <c r="F207">
-        <v>11.67867812657964</v>
+        <v>3.048836344464976</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>11.29367414019067</v>
+        <v>13.20082652758563</v>
       </c>
       <c r="C208">
-        <v>13.92233470197331</v>
+        <v>11.31418488847365</v>
       </c>
       <c r="D208">
-        <v>13.88940832816858</v>
+        <v>10.90646326515832</v>
       </c>
       <c r="E208">
-        <v>8.934712342310712</v>
+        <v>11.42699465265236</v>
       </c>
       <c r="F208">
-        <v>11.72123643057212</v>
+        <v>3.053518072235384</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>11.32789254076276</v>
+        <v>13.27237568611899</v>
       </c>
       <c r="C209">
-        <v>13.97138168437939</v>
+        <v>11.37610203841226</v>
       </c>
       <c r="D209">
-        <v>13.96165802019804</v>
+        <v>10.95273857137544</v>
       </c>
       <c r="E209">
-        <v>8.954393263307992</v>
+        <v>11.48145105852709</v>
       </c>
       <c r="F209">
-        <v>11.76358103505607</v>
+        <v>3.05817743446624</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>11.36181779083857</v>
+        <v>13.34385577333698</v>
       </c>
       <c r="C210">
-        <v>14.02006895625919</v>
+        <v>11.43801150594771</v>
       </c>
       <c r="D210">
-        <v>14.03380165916333</v>
+        <v>10.9988880962658</v>
       </c>
       <c r="E210">
-        <v>8.97393253275872</v>
+        <v>11.53582693239958</v>
       </c>
       <c r="F210">
-        <v>11.80571467327591</v>
+        <v>3.062814372474098</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>11.39545204885372</v>
+        <v>13.41526749428205</v>
       </c>
       <c r="C211">
-        <v>14.06839851532492</v>
+        <v>11.4999133944357</v>
       </c>
       <c r="D211">
-        <v>14.10583998855265</v>
+        <v>11.04491257338249</v>
       </c>
       <c r="E211">
-        <v>8.993331241892806</v>
+        <v>11.59012354720965</v>
       </c>
       <c r="F211">
-        <v>11.84764005637764</v>
+        <v>3.067428831431928</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>11.42879746737299</v>
+        <v>13.48661155389526</v>
       </c>
       <c r="C212">
-        <v>14.11637235246813</v>
+        <v>11.56180780710701</v>
       </c>
       <c r="D212">
-        <v>14.17777375441207</v>
+        <v>11.09081273748329</v>
       </c>
       <c r="E212">
-        <v>9.012590474978554</v>
+        <v>11.64434217033823</v>
       </c>
       <c r="F212">
-        <v>11.88935987209043</v>
+        <v>3.072020760208484</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>11.46185619067015</v>
+        <v>13.55788865727017</v>
       </c>
       <c r="C213">
-        <v>14.16399245231856</v>
+        <v>11.62369484696123</v>
       </c>
       <c r="D213">
-        <v>14.2496037051752</v>
+        <v>11.13658932550561</v>
       </c>
       <c r="E213">
-        <v>9.031711309234973</v>
+        <v>11.69848406375813</v>
       </c>
       <c r="F213">
-        <v>11.93087678581801</v>
+        <v>3.07659011121318</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>11.49463035293167</v>
+        <v>13.62909950919254</v>
       </c>
       <c r="C214">
-        <v>14.21126079184647</v>
+        <v>11.6855746168179</v>
       </c>
       <c r="D214">
-        <v>14.32133059142351</v>
+        <v>11.18224307629716</v>
       </c>
       <c r="E214">
-        <v>9.05069481476788</v>
+        <v>11.75255048469861</v>
       </c>
       <c r="F214">
-        <v>11.97219344044762</v>
+        <v>3.081136840245815</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>11.52712208033822</v>
+        <v>13.70024481433441</v>
       </c>
       <c r="C215">
-        <v>14.25817934107694</v>
+        <v>11.74744721933311</v>
       </c>
       <c r="D215">
-        <v>14.39295516566666</v>
+        <v>11.22777472905169</v>
       </c>
       <c r="E215">
-        <v>9.069542054463206</v>
+        <v>11.80654268398155</v>
       </c>
       <c r="F215">
-        <v>12.01331245573862</v>
+        <v>3.085660906353591</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>11.55933349272178</v>
+        <v>13.77132527722096</v>
       </c>
       <c r="C216">
-        <v>14.30475006237913</v>
+        <v>11.80931275693164</v>
       </c>
       <c r="D216">
-        <v>14.46447818221823</v>
+        <v>11.27318502438458</v>
       </c>
       <c r="E216">
-        <v>9.088254083875755</v>
+        <v>11.86046190711799</v>
       </c>
       <c r="F216">
-        <v>12.05423642934213</v>
+        <v>3.090162271691559</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>11.59126669907264</v>
+        <v>13.84234160194571</v>
       </c>
       <c r="C217">
-        <v>14.35097491021827</v>
+        <v>11.87117133182467</v>
       </c>
       <c r="D217">
-        <v>14.53590039684579</v>
+        <v>11.31847470453707</v>
       </c>
       <c r="E217">
-        <v>9.106831951245494</v>
+        <v>11.91430939461454</v>
       </c>
       <c r="F217">
-        <v>12.09496793603234</v>
+        <v>3.094640901393141</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>11.6229237986345</v>
+        <v>13.91329449238216</v>
       </c>
       <c r="C218">
-        <v>14.39685583178429</v>
+        <v>11.93302304602895</v>
       </c>
       <c r="D218">
-        <v>14.60722256656361</v>
+        <v>11.36364451151293</v>
       </c>
       <c r="E218">
-        <v>9.125276697411255</v>
+        <v>11.96808638161367</v>
       </c>
       <c r="F218">
-        <v>12.13550952800518</v>
+        <v>3.099096763441158</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>11.65430688138013</v>
+        <v>13.98418465198275</v>
       </c>
       <c r="C219">
-        <v>14.442394765076</v>
+        <v>11.9948680013257</v>
       </c>
       <c r="D219">
-        <v>14.67844544951108</v>
+        <v>11.40869518809198</v>
       </c>
       <c r="E219">
-        <v>9.143589355709324</v>
+        <v>12.02179409703957</v>
       </c>
       <c r="F219">
-        <v>12.17586373579389</v>
+        <v>3.103529828546003</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>11.68541803048568</v>
+        <v>14.05501278371651</v>
       </c>
       <c r="C220">
-        <v>14.48759363963503</v>
+        <v>12.05670629925629</v>
       </c>
       <c r="D220">
-        <v>14.74956980484427</v>
+        <v>11.45362747823034</v>
       </c>
       <c r="E220">
-        <v>9.161770952012347</v>
+        <v>12.07543376451468</v>
       </c>
       <c r="F220">
-        <v>12.21603306651381</v>
+        <v>3.107940070027436</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>11.71625931608782</v>
+        <v>14.12577959021303</v>
       </c>
       <c r="C221">
-        <v>14.53245437726987</v>
+        <v>12.11853804114206</v>
       </c>
       <c r="D221">
-        <v>14.8205963925181</v>
+        <v>11.49844212526798</v>
       </c>
       <c r="E221">
-        <v>9.179822504669165</v>
+        <v>12.12900660320899</v>
       </c>
       <c r="F221">
-        <v>12.25602000499591</v>
+        <v>3.112327463702483</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>11.74683279901717</v>
+        <v>14.19648577346152</v>
       </c>
       <c r="C222">
-        <v>14.57697889138395</v>
+        <v>12.18036332806014</v>
       </c>
       <c r="D222">
-        <v>14.8915259731051</v>
+        <v>11.54313987281999</v>
       </c>
       <c r="E222">
-        <v>9.197745024420582</v>
+        <v>12.18251382574151</v>
       </c>
       <c r="F222">
-        <v>12.29582701372128</v>
+        <v>3.116691987776988</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>11.77714052999796</v>
+        <v>14.26713203495839</v>
       </c>
       <c r="C223">
-        <v>14.62116908454286</v>
+        <v>12.24218226082686</v>
       </c>
       <c r="D223">
-        <v>14.9623593076195</v>
+        <v>11.58772146500854</v>
       </c>
       <c r="E223">
-        <v>9.215539514428437</v>
+        <v>12.23595663954773</v>
       </c>
       <c r="F223">
-        <v>12.33545653536711</v>
+        <v>3.12103362274286</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>11.80718455153846</v>
+        <v>14.33771907566598</v>
       </c>
       <c r="C224">
-        <v>14.66502685044816</v>
+        <v>12.30399494001745</v>
       </c>
       <c r="D224">
-        <v>15.03309715740285</v>
+        <v>11.63218764537457</v>
       </c>
       <c r="E224">
-        <v>9.233206970240607</v>
+        <v>12.2893362467695</v>
       </c>
       <c r="F224">
-        <v>12.37491098731244</v>
+        <v>3.125352351276781</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>11.83696689281894</v>
+        <v>14.40824759584135</v>
       </c>
       <c r="C225">
-        <v>14.70855407666924</v>
+        <v>12.36580146595261</v>
       </c>
       <c r="D225">
-        <v>15.10374028391336</v>
+        <v>11.67653915706418</v>
       </c>
       <c r="E225">
-        <v>9.25074837972242</v>
+        <v>12.34265384439712</v>
       </c>
       <c r="F225">
-        <v>12.41419276569154</v>
+        <v>3.129648158143981</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>11.86648957309991</v>
+        <v>14.47871829526834</v>
       </c>
       <c r="C226">
-        <v>14.75175263918207</v>
+        <v>12.42760193867468</v>
       </c>
       <c r="D226">
-        <v>15.17428944859897</v>
+        <v>11.72077674319368</v>
       </c>
       <c r="E226">
-        <v>9.268164723125706</v>
+        <v>12.39591062356696</v>
       </c>
       <c r="F226">
-        <v>12.45330424454128</v>
+        <v>3.133921030107072</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>11.89575460118865</v>
+        <v>14.54913187294304</v>
       </c>
       <c r="C227">
-        <v>14.79462440374916</v>
+        <v>12.48939645796669</v>
       </c>
       <c r="D227">
-        <v>15.24474541275656</v>
+        <v>11.76490114634212</v>
       </c>
       <c r="E227">
-        <v>9.285456973043912</v>
+        <v>12.44910777016264</v>
       </c>
       <c r="F227">
-        <v>12.49224777989925</v>
+        <v>3.138170955838259</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>11.92476397625517</v>
+        <v>14.61948902710619</v>
       </c>
       <c r="C228">
-        <v>14.83717122698362</v>
+        <v>12.55118512334647</v>
       </c>
       <c r="D228">
-        <v>15.31510893740501</v>
+        <v>11.80891310810965</v>
       </c>
       <c r="E228">
-        <v>9.302626094405005</v>
+        <v>12.50224646487409</v>
       </c>
       <c r="F228">
-        <v>12.53102570143243</v>
+        <v>3.142397925832976</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>11.9535196842625</v>
+        <v>14.68979045523288</v>
       </c>
       <c r="C229">
-        <v>14.8793949592575</v>
+        <v>12.6129680340388</v>
       </c>
       <c r="D229">
-        <v>15.38538078329392</v>
+        <v>11.85281336963007</v>
       </c>
       <c r="E229">
-        <v>9.31967304451725</v>
+        <v>12.55532788290821</v>
       </c>
       <c r="F229">
-        <v>12.56964031863693</v>
+        <v>3.146601932325163</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>11.98202370056013</v>
+        <v>14.76003685451027</v>
       </c>
       <c r="C230">
-        <v>14.92129743727189</v>
+        <v>12.67474528899308</v>
       </c>
       <c r="D230">
-        <v>15.45556171049278</v>
+        <v>11.89660267146238</v>
       </c>
       <c r="E230">
-        <v>9.336598772987752</v>
+        <v>12.60835319409027</v>
       </c>
       <c r="F230">
-        <v>12.60809391937037</v>
+        <v>3.15078296921921</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.01027798988229</v>
+        <v>14.83022892090177</v>
       </c>
       <c r="C231">
-        <v>14.96288048910147</v>
+        <v>12.73651698688192</v>
       </c>
       <c r="D231">
-        <v>15.52565247854686</v>
+        <v>11.94028175275373</v>
       </c>
       <c r="E231">
-        <v>9.353404221811378</v>
+        <v>12.66132356297943</v>
       </c>
       <c r="F231">
-        <v>12.64638877345481</v>
+        <v>3.154941032014898</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.03828450605375</v>
+        <v>14.90036734954344</v>
       </c>
       <c r="C232">
-        <v>15.00414593328881</v>
+        <v>12.79828322607313</v>
       </c>
       <c r="D232">
-        <v>15.59565384619051</v>
+        <v>11.98385135181429</v>
       </c>
       <c r="E232">
-        <v>9.37009032532934</v>
+        <v>12.71424014905308</v>
       </c>
       <c r="F232">
-        <v>12.68452712579363</v>
+        <v>3.159076117730527</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.06604518992861</v>
+        <v>14.97045283473952</v>
       </c>
       <c r="C233">
-        <v>15.04509557954508</v>
+        <v>12.86004410464463</v>
       </c>
       <c r="D233">
-        <v>15.66556657116784</v>
+        <v>12.02731220625438</v>
       </c>
       <c r="E233">
-        <v>9.386658010215728</v>
+        <v>12.76710410624539</v>
       </c>
       <c r="F233">
-        <v>12.72251120146641</v>
+        <v>3.163188224815169</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>12.09356197117769</v>
+        <v>15.04048607070703</v>
       </c>
       <c r="C234">
-        <v>15.085731225915</v>
+        <v>12.92179972038542</v>
       </c>
       <c r="D234">
-        <v>15.73539141036705</v>
+        <v>12.07066505198037</v>
       </c>
       <c r="E234">
-        <v>9.403108195590194</v>
+        <v>12.81991658331919</v>
       </c>
       <c r="F234">
-        <v>12.76034320461396</v>
+        <v>3.167277353054683</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>12.1208367687852</v>
+        <v>15.1104677501029</v>
       </c>
       <c r="C235">
-        <v>15.12605466090203</v>
+        <v>12.9835501707698</v>
       </c>
       <c r="D235">
-        <v>15.80512911953763</v>
+        <v>12.1139106237491</v>
       </c>
       <c r="E235">
-        <v>9.419441792992533</v>
+        <v>12.87267872393142</v>
       </c>
       <c r="F235">
-        <v>12.79802532010552</v>
+        <v>3.171343503673765</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>12.14787148967996</v>
+        <v>15.18039856476785</v>
       </c>
       <c r="C236">
-        <v>15.16606766346085</v>
+        <v>13.04529555296907</v>
       </c>
       <c r="D236">
-        <v>15.87478045318692</v>
+        <v>12.15704965543464</v>
       </c>
       <c r="E236">
-        <v>9.435659706407083</v>
+        <v>12.92539166654263</v>
       </c>
       <c r="F236">
-        <v>12.83555971072076</v>
+        <v>3.175386678985996</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12.17466802818153</v>
+        <v>15.250279205697</v>
       </c>
       <c r="C237">
-        <v>15.20577200243835</v>
+        <v>13.10703596385365</v>
       </c>
       <c r="D237">
-        <v>15.94434616465389</v>
+        <v>12.20008287900916</v>
       </c>
       <c r="E237">
-        <v>9.451762832269386</v>
+        <v>12.97805654433536</v>
       </c>
       <c r="F237">
-        <v>12.87294851919081</v>
+        <v>3.179406882788243</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>12.2012282669531</v>
+        <v>15.32011036365485</v>
       </c>
       <c r="C238">
-        <v>15.24516943583007</v>
+        <v>13.16877149997017</v>
       </c>
       <c r="D238">
-        <v>16.01382700582402</v>
+        <v>12.24301102507378</v>
       </c>
       <c r="E238">
-        <v>9.467752059535099</v>
+        <v>13.03067448539261</v>
       </c>
       <c r="F238">
-        <v>12.91019386799945</v>
+        <v>3.183404119703976</v>
       </c>
     </row>
   </sheetData>
